--- a/Users.xlsx
+++ b/Users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ch\Desktop\Lects\OS-Lects\STDs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\University\Term 08\Operating System - Dr.ChaleChale\mini_os\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1EAE04-9210-4B81-B967-58A32871E81B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD39220-E986-4957-BE21-A677EEAC8EBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{392730B6-4DE4-4E03-B7A5-A277E46B18EF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{392730B6-4DE4-4E03-B7A5-A277E46B18EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="507">
   <si>
     <t>U1001</t>
   </si>
@@ -1546,6 +1540,12 @@
   </si>
   <si>
     <t>User gives the New Password, after the first login. New Password: at least 8 chars, including alphabets, numbers, and special chars.</t>
+  </si>
+  <si>
+    <t>Need Password Change</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -1906,22 +1906,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB410AC5-42A0-4336-BBC9-409F792AA485}">
-  <dimension ref="A1:E501"/>
+  <dimension ref="A1:F501"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A480" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C501" sqref="C501"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>499</v>
       </c>
@@ -1937,4005 +1937,5508 @@
       <c r="E1" s="1" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>190917118</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>815334743</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>632636403</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>841554356</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <v>849718441</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <v>105619503</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
         <v>214560238</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
         <v>328377381</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
         <v>654127865</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
         <v>629715947</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
         <v>100011053</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
         <v>740872992</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
         <v>954991725</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
         <v>35475262</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
         <v>826106568</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
         <v>829033873</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
         <v>638536317</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
         <v>172451817</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
         <v>3047220</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
         <v>967135963</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
         <v>511307038</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
         <v>296229160</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24">
         <v>585757410</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
         <v>684253311</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26">
         <v>479497934</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27">
         <v>370349668</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28">
         <v>512082364</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29">
         <v>599538217</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30">
         <v>35915500</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31">
         <v>78824233</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32">
         <v>697996321</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33">
         <v>434053972</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34">
         <v>735721388</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35">
         <v>581678332</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36">
         <v>122451286</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37">
         <v>931122748</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38">
         <v>210865821</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39">
         <v>245782735</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40">
         <v>85015375</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41">
         <v>524658711</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42">
         <v>596804777</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43">
         <v>258219696</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44">
         <v>486745810</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45">
         <v>720978887</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46">
         <v>112355587</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
       <c r="B47">
         <v>665971683</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
       <c r="B48">
         <v>566569332</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49">
         <v>14606768</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50">
         <v>657423173</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
       <c r="B51">
         <v>15639772</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
       <c r="B52">
         <v>751290107</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
       <c r="B53">
         <v>783679778</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
       <c r="B54">
         <v>515464430</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
       <c r="B55">
         <v>846180320</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
       <c r="B56">
         <v>255404125</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
       <c r="B57">
         <v>243484874</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
       <c r="B58">
         <v>923927668</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>57</v>
       </c>
       <c r="B59">
         <v>252576886</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>58</v>
       </c>
       <c r="B60">
         <v>752354184</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>59</v>
       </c>
       <c r="B61">
         <v>539612757</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F61" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>60</v>
       </c>
       <c r="B62">
         <v>19973003</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>61</v>
       </c>
       <c r="B63">
         <v>478255426</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>62</v>
       </c>
       <c r="B64">
         <v>773332049</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F64" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>63</v>
       </c>
       <c r="B65">
         <v>413745371</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>64</v>
       </c>
       <c r="B66">
         <v>63202597</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>65</v>
       </c>
       <c r="B67">
         <v>423629765</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>66</v>
       </c>
       <c r="B68">
         <v>93715465</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>67</v>
       </c>
       <c r="B69">
         <v>613000390</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>68</v>
       </c>
       <c r="B70">
         <v>874743829</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>69</v>
       </c>
       <c r="B71">
         <v>874880591</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>70</v>
       </c>
       <c r="B72">
         <v>179970848</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>71</v>
       </c>
       <c r="B73">
         <v>891001000</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>72</v>
       </c>
       <c r="B74">
         <v>100397800</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>73</v>
       </c>
       <c r="B75">
         <v>820455738</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>74</v>
       </c>
       <c r="B76">
         <v>105283942</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>75</v>
       </c>
       <c r="B77">
         <v>648680149</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>76</v>
       </c>
       <c r="B78">
         <v>258653309</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F78" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>77</v>
       </c>
       <c r="B79">
         <v>606984527</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
       <c r="B80">
         <v>101345222</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F80" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>79</v>
       </c>
       <c r="B81">
         <v>693277908</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F81" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>80</v>
       </c>
       <c r="B82">
         <v>377369552</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F82" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>81</v>
       </c>
       <c r="B83">
         <v>174280502</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F83" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>82</v>
       </c>
       <c r="B84">
         <v>460819413</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F84" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>83</v>
       </c>
       <c r="B85">
         <v>358378235</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F85" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>84</v>
       </c>
       <c r="B86">
         <v>667722126</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F86" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>85</v>
       </c>
       <c r="B87">
         <v>721552857</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F87" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>86</v>
       </c>
       <c r="B88">
         <v>737882505</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F88" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>87</v>
       </c>
       <c r="B89">
         <v>39583717</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F89" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>88</v>
       </c>
       <c r="B90">
         <v>562296746</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F90" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>89</v>
       </c>
       <c r="B91">
         <v>6560832</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F91" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>90</v>
       </c>
       <c r="B92">
         <v>318479705</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F92" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>91</v>
       </c>
       <c r="B93">
         <v>110591378</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F93" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>92</v>
       </c>
       <c r="B94">
         <v>620837461</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F94" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>93</v>
       </c>
       <c r="B95">
         <v>310743255</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F95" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>94</v>
       </c>
       <c r="B96">
         <v>798073887</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F96" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>95</v>
       </c>
       <c r="B97">
         <v>689348483</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F97" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>96</v>
       </c>
       <c r="B98">
         <v>748341303</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F98" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>97</v>
       </c>
       <c r="B99">
         <v>963945886</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F99" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>98</v>
       </c>
       <c r="B100">
         <v>247660321</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F100" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>99</v>
       </c>
       <c r="B101">
         <v>19959374</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F101" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>100</v>
       </c>
       <c r="B102">
         <v>275398534</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F102" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>101</v>
       </c>
       <c r="B103">
         <v>452592038</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F103" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>102</v>
       </c>
       <c r="B104">
         <v>356592286</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F104" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>103</v>
       </c>
       <c r="B105">
         <v>331761214</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F105" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>104</v>
       </c>
       <c r="B106">
         <v>14436557</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F106" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>105</v>
       </c>
       <c r="B107">
         <v>809578262</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F107" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>106</v>
       </c>
       <c r="B108">
         <v>534701951</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F108" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>107</v>
       </c>
       <c r="B109">
         <v>994860017</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F109" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>108</v>
       </c>
       <c r="B110">
         <v>89270044</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F110" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>109</v>
       </c>
       <c r="B111">
         <v>307793</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F111" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>110</v>
       </c>
       <c r="B112">
         <v>131168187</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F112" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>111</v>
       </c>
       <c r="B113">
         <v>53587161</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F113" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>112</v>
       </c>
       <c r="B114">
         <v>927350966</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F114" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>113</v>
       </c>
       <c r="B115">
         <v>516760719</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F115" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>114</v>
       </c>
       <c r="B116">
         <v>569323663</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F116" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>115</v>
       </c>
       <c r="B117">
         <v>720958147</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F117" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>116</v>
       </c>
       <c r="B118">
         <v>603170349</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F118" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>117</v>
       </c>
       <c r="B119">
         <v>498324296</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F119" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>118</v>
       </c>
       <c r="B120">
         <v>825649442</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F120" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>119</v>
       </c>
       <c r="B121">
         <v>448126502</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F121" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>120</v>
       </c>
       <c r="B122">
         <v>70970066</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F122" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>121</v>
       </c>
       <c r="B123">
         <v>85064582</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F123" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>122</v>
       </c>
       <c r="B124">
         <v>974761976</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F124" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>123</v>
       </c>
       <c r="B125">
         <v>985024438</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F125" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>124</v>
       </c>
       <c r="B126">
         <v>60939597</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F126" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>125</v>
       </c>
       <c r="B127">
         <v>907712388</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F127" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>126</v>
       </c>
       <c r="B128">
         <v>708975018</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F128" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>127</v>
       </c>
       <c r="B129">
         <v>752463270</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F129" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>128</v>
       </c>
       <c r="B130">
         <v>506016291</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F130" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>129</v>
       </c>
       <c r="B131">
         <v>596966980</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F131" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>130</v>
       </c>
       <c r="B132">
         <v>237684431</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F132" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>131</v>
       </c>
       <c r="B133">
         <v>994611001</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F133" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>132</v>
       </c>
       <c r="B134">
         <v>614814254</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F134" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>133</v>
       </c>
       <c r="B135">
         <v>215214635</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F135" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>134</v>
       </c>
       <c r="B136">
         <v>256015655</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F136" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>135</v>
       </c>
       <c r="B137">
         <v>991552580</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F137" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>136</v>
       </c>
       <c r="B138">
         <v>432014222</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F138" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>137</v>
       </c>
       <c r="B139">
         <v>282312484</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F139" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>138</v>
       </c>
       <c r="B140">
         <v>287498239</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F140" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>139</v>
       </c>
       <c r="B141">
         <v>447254780</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F141" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>140</v>
       </c>
       <c r="B142">
         <v>590983540</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F142" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>141</v>
       </c>
       <c r="B143">
         <v>347429366</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F143" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>142</v>
       </c>
       <c r="B144">
         <v>827394368</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F144" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>143</v>
       </c>
       <c r="B145">
         <v>23494520</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F145" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>144</v>
       </c>
       <c r="B146">
         <v>459064132</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F146" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>145</v>
       </c>
       <c r="B147">
         <v>875961882</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F147" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>146</v>
       </c>
       <c r="B148">
         <v>804019997</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F148" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>147</v>
       </c>
       <c r="B149">
         <v>747884938</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F149" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>148</v>
       </c>
       <c r="B150">
         <v>732676614</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F150" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>149</v>
       </c>
       <c r="B151">
         <v>24070754</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F151" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>150</v>
       </c>
       <c r="B152">
         <v>155462842</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F152" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>151</v>
       </c>
       <c r="B153">
         <v>186840951</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F153" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>152</v>
       </c>
       <c r="B154">
         <v>377403166</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F154" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>153</v>
       </c>
       <c r="B155">
         <v>185538163</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F155" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>154</v>
       </c>
       <c r="B156">
         <v>556316048</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F156" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>155</v>
       </c>
       <c r="B157">
         <v>773963797</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F157" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>156</v>
       </c>
       <c r="B158">
         <v>844932233</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F158" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>157</v>
       </c>
       <c r="B159">
         <v>570203920</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F159" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>158</v>
       </c>
       <c r="B160">
         <v>388241859</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F160" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>159</v>
       </c>
       <c r="B161">
         <v>771827223</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F161" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>160</v>
       </c>
       <c r="B162">
         <v>744730778</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F162" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>161</v>
       </c>
       <c r="B163">
         <v>359167108</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F163" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>162</v>
       </c>
       <c r="B164">
         <v>242989829</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F164" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>163</v>
       </c>
       <c r="B165">
         <v>383682386</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F165" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>164</v>
       </c>
       <c r="B166">
         <v>701377031</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F166" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>165</v>
       </c>
       <c r="B167">
         <v>451627007</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F167" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>166</v>
       </c>
       <c r="B168">
         <v>547520425</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F168" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>167</v>
       </c>
       <c r="B169">
         <v>703756609</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F169" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>168</v>
       </c>
       <c r="B170">
         <v>861031358</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F170" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>169</v>
       </c>
       <c r="B171">
         <v>839321379</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F171" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>170</v>
       </c>
       <c r="B172">
         <v>729021912</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F172" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>171</v>
       </c>
       <c r="B173">
         <v>315562732</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F173" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>172</v>
       </c>
       <c r="B174">
         <v>980156132</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F174" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>173</v>
       </c>
       <c r="B175">
         <v>181534294</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F175" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>174</v>
       </c>
       <c r="B176">
         <v>109491300</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F176" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>175</v>
       </c>
       <c r="B177">
         <v>423550567</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F177" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>176</v>
       </c>
       <c r="B178">
         <v>768438519</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F178" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>177</v>
       </c>
       <c r="B179">
         <v>983242629</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F179" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>178</v>
       </c>
       <c r="B180">
         <v>981800988</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F180" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>179</v>
       </c>
       <c r="B181">
         <v>428804284</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F181" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>180</v>
       </c>
       <c r="B182">
         <v>621537561</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F182" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>181</v>
       </c>
       <c r="B183">
         <v>594419821</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F183" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>182</v>
       </c>
       <c r="B184">
         <v>323902523</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F184" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>183</v>
       </c>
       <c r="B185">
         <v>580840259</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F185" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>184</v>
       </c>
       <c r="B186">
         <v>261084343</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F186" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>185</v>
       </c>
       <c r="B187">
         <v>821549564</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F187" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>186</v>
       </c>
       <c r="B188">
         <v>311999769</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F188" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>187</v>
       </c>
       <c r="B189">
         <v>328649857</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F189" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>188</v>
       </c>
       <c r="B190">
         <v>983904522</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F190" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>189</v>
       </c>
       <c r="B191">
         <v>780205030</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F191" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>190</v>
       </c>
       <c r="B192">
         <v>599303005</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F192" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>191</v>
       </c>
       <c r="B193">
         <v>181681820</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F193" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>192</v>
       </c>
       <c r="B194">
         <v>950387017</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F194" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>193</v>
       </c>
       <c r="B195">
         <v>328458188</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F195" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>194</v>
       </c>
       <c r="B196">
         <v>309878829</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F196" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>195</v>
       </c>
       <c r="B197">
         <v>890466609</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F197" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>196</v>
       </c>
       <c r="B198">
         <v>457899867</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F198" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>197</v>
       </c>
       <c r="B199">
         <v>608328333</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F199" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>198</v>
       </c>
       <c r="B200">
         <v>896775682</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F200" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>199</v>
       </c>
       <c r="B201">
         <v>944344867</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F201" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>200</v>
       </c>
       <c r="B202">
         <v>550379758</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F202" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>201</v>
       </c>
       <c r="B203">
         <v>18148972</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F203" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>202</v>
       </c>
       <c r="B204">
         <v>917066680</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F204" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>203</v>
       </c>
       <c r="B205">
         <v>184334008</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F205" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>204</v>
       </c>
       <c r="B206">
         <v>30743540</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F206" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>205</v>
       </c>
       <c r="B207">
         <v>720526423</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F207" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>206</v>
       </c>
       <c r="B208">
         <v>738887187</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F208" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>207</v>
       </c>
       <c r="B209">
         <v>247547732</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F209" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>208</v>
       </c>
       <c r="B210">
         <v>161463408</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F210" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>209</v>
       </c>
       <c r="B211">
         <v>187554316</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F211" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>210</v>
       </c>
       <c r="B212">
         <v>269761907</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F212" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>211</v>
       </c>
       <c r="B213">
         <v>994099621</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F213" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>212</v>
       </c>
       <c r="B214">
         <v>686956751</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F214" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>213</v>
       </c>
       <c r="B215">
         <v>343511293</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F215" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>214</v>
       </c>
       <c r="B216">
         <v>247936776</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F216" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>215</v>
       </c>
       <c r="B217">
         <v>792274234</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F217" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>216</v>
       </c>
       <c r="B218">
         <v>855470834</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F218" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>217</v>
       </c>
       <c r="B219">
         <v>447026601</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F219" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>218</v>
       </c>
       <c r="B220">
         <v>290373693</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F220" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>219</v>
       </c>
       <c r="B221">
         <v>639422313</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F221" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>220</v>
       </c>
       <c r="B222">
         <v>657832550</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F222" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>221</v>
       </c>
       <c r="B223">
         <v>457358617</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F223" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>222</v>
       </c>
       <c r="B224">
         <v>139878966</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F224" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>223</v>
       </c>
       <c r="B225">
         <v>301805254</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F225" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>224</v>
       </c>
       <c r="B226">
         <v>506104428</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F226" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>225</v>
       </c>
       <c r="B227">
         <v>369551652</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F227" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>226</v>
       </c>
       <c r="B228">
         <v>753883548</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F228" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>227</v>
       </c>
       <c r="B229">
         <v>271502232</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F229" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>228</v>
       </c>
       <c r="B230">
         <v>603234589</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F230" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>229</v>
       </c>
       <c r="B231">
         <v>79997115</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F231" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>230</v>
       </c>
       <c r="B232">
         <v>70553934</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F232" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>231</v>
       </c>
       <c r="B233">
         <v>939805801</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F233" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>232</v>
       </c>
       <c r="B234">
         <v>892072260</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F234" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>233</v>
       </c>
       <c r="B235">
         <v>595726839</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F235" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>234</v>
       </c>
       <c r="B236">
         <v>521288058</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F236" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>235</v>
       </c>
       <c r="B237">
         <v>692628492</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F237" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>236</v>
       </c>
       <c r="B238">
         <v>369138134</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F238" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>237</v>
       </c>
       <c r="B239">
         <v>97825304</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F239" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>238</v>
       </c>
       <c r="B240">
         <v>282179181</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F240" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>239</v>
       </c>
       <c r="B241">
         <v>549572990</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F241" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>240</v>
       </c>
       <c r="B242">
         <v>842780354</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F242" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>241</v>
       </c>
       <c r="B243">
         <v>808879893</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F243" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>242</v>
       </c>
       <c r="B244">
         <v>368166366</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F244" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>243</v>
       </c>
       <c r="B245">
         <v>791354420</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F245" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>244</v>
       </c>
       <c r="B246">
         <v>426467337</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F246" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>245</v>
       </c>
       <c r="B247">
         <v>599869937</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F247" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>246</v>
       </c>
       <c r="B248">
         <v>273025497</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F248" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>247</v>
       </c>
       <c r="B249">
         <v>736994943</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F249" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>248</v>
       </c>
       <c r="B250">
         <v>486183966</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F250" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>249</v>
       </c>
       <c r="B251">
         <v>266754654</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F251" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>250</v>
       </c>
       <c r="B252">
         <v>42044686</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F252" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>251</v>
       </c>
       <c r="B253">
         <v>557336223</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F253" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>252</v>
       </c>
       <c r="B254">
         <v>402398811</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F254" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>253</v>
       </c>
       <c r="B255">
         <v>551463515</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F255" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>254</v>
       </c>
       <c r="B256">
         <v>130244640</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F256" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>255</v>
       </c>
       <c r="B257">
         <v>579412430</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F257" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>256</v>
       </c>
       <c r="B258">
         <v>47610261</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F258" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>257</v>
       </c>
       <c r="B259">
         <v>141284589</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F259" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>258</v>
       </c>
       <c r="B260">
         <v>139920371</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F260" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>259</v>
       </c>
       <c r="B261">
         <v>180177531</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F261" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>260</v>
       </c>
       <c r="B262">
         <v>75638196</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F262" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>261</v>
       </c>
       <c r="B263">
         <v>168004791</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F263" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>262</v>
       </c>
       <c r="B264">
         <v>542609508</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F264" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>263</v>
       </c>
       <c r="B265">
         <v>785094238</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F265" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>264</v>
       </c>
       <c r="B266">
         <v>601400890</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F266" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>265</v>
       </c>
       <c r="B267">
         <v>18258916</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F267" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>266</v>
       </c>
       <c r="B268">
         <v>24231789</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F268" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>267</v>
       </c>
       <c r="B269">
         <v>639636185</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F269" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>268</v>
       </c>
       <c r="B270">
         <v>25113822</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F270" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>269</v>
       </c>
       <c r="B271">
         <v>887601061</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F271" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>270</v>
       </c>
       <c r="B272">
         <v>872876778</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F272" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>271</v>
       </c>
       <c r="B273">
         <v>445273287</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F273" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>272</v>
       </c>
       <c r="B274">
         <v>777096008</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F274" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>273</v>
       </c>
       <c r="B275">
         <v>78538035</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F275" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>274</v>
       </c>
       <c r="B276">
         <v>747648933</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F276" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>275</v>
       </c>
       <c r="B277">
         <v>537939687</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F277" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>276</v>
       </c>
       <c r="B278">
         <v>816924738</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F278" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>277</v>
       </c>
       <c r="B279">
         <v>689901742</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F279" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>278</v>
       </c>
       <c r="B280">
         <v>748383922</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F280" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>279</v>
       </c>
       <c r="B281">
         <v>306790927</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F281" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>280</v>
       </c>
       <c r="B282">
         <v>283197801</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F282" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>281</v>
       </c>
       <c r="B283">
         <v>384721058</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F283" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>282</v>
       </c>
       <c r="B284">
         <v>645072742</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F284" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>283</v>
       </c>
       <c r="B285">
         <v>160776349</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F285" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>284</v>
       </c>
       <c r="B286">
         <v>130838150</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F286" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>285</v>
       </c>
       <c r="B287">
         <v>973596211</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F287" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>286</v>
       </c>
       <c r="B288">
         <v>726843132</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F288" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>287</v>
       </c>
       <c r="B289">
         <v>985706431</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F289" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>288</v>
       </c>
       <c r="B290">
         <v>679413445</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F290" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>289</v>
       </c>
       <c r="B291">
         <v>69283057</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F291" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>290</v>
       </c>
       <c r="B292">
         <v>44594874</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F292" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>291</v>
       </c>
       <c r="B293">
         <v>504243732</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F293" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>292</v>
       </c>
       <c r="B294">
         <v>816971394</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F294" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>293</v>
       </c>
       <c r="B295">
         <v>22505916</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F295" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>294</v>
       </c>
       <c r="B296">
         <v>641011867</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F296" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>295</v>
       </c>
       <c r="B297">
         <v>923000066</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F297" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>296</v>
       </c>
       <c r="B298">
         <v>583156990</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F298" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>297</v>
       </c>
       <c r="B299">
         <v>98170539</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F299" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>298</v>
       </c>
       <c r="B300">
         <v>869644634</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F300" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>299</v>
       </c>
       <c r="B301">
         <v>827872385</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F301" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>300</v>
       </c>
       <c r="B302">
         <v>798686257</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F302" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>301</v>
       </c>
       <c r="B303">
         <v>212167106</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F303" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>302</v>
       </c>
       <c r="B304">
         <v>626755117</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F304" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>303</v>
       </c>
       <c r="B305">
         <v>853669239</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F305" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>304</v>
       </c>
       <c r="B306">
         <v>923296150</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F306" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>305</v>
       </c>
       <c r="B307">
         <v>563327680</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F307" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>306</v>
       </c>
       <c r="B308">
         <v>679719835</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F308" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>307</v>
       </c>
       <c r="B309">
         <v>738932589</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F309" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>308</v>
       </c>
       <c r="B310">
         <v>165572657</v>
       </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F310" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>309</v>
       </c>
       <c r="B311">
         <v>753218255</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F311" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>310</v>
       </c>
       <c r="B312">
         <v>298602558</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F312" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>311</v>
       </c>
       <c r="B313">
         <v>25218266</v>
       </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F313" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>312</v>
       </c>
       <c r="B314">
         <v>147304872</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F314" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>313</v>
       </c>
       <c r="B315">
         <v>327838623</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F315" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>314</v>
       </c>
       <c r="B316">
         <v>854819508</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F316" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>315</v>
       </c>
       <c r="B317">
         <v>349951007</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F317" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>316</v>
       </c>
       <c r="B318">
         <v>436981689</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F318" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>317</v>
       </c>
       <c r="B319">
         <v>913501683</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F319" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>318</v>
       </c>
       <c r="B320">
         <v>683045329</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F320" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>319</v>
       </c>
       <c r="B321">
         <v>247713641</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F321" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>320</v>
       </c>
       <c r="B322">
         <v>481237049</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F322" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>321</v>
       </c>
       <c r="B323">
         <v>436935790</v>
       </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F323" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>322</v>
       </c>
       <c r="B324">
         <v>5554203</v>
       </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F324" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>323</v>
       </c>
       <c r="B325">
         <v>133657459</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F325" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>324</v>
       </c>
       <c r="B326">
         <v>935452889</v>
       </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F326" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>325</v>
       </c>
       <c r="B327">
         <v>667775013</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F327" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>326</v>
       </c>
       <c r="B328">
         <v>938259201</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F328" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>327</v>
       </c>
       <c r="B329">
         <v>802754596</v>
       </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F329" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>328</v>
       </c>
       <c r="B330">
         <v>266690578</v>
       </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F330" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>329</v>
       </c>
       <c r="B331">
         <v>789927156</v>
       </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F331" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>330</v>
       </c>
       <c r="B332">
         <v>46760873</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F332" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>331</v>
       </c>
       <c r="B333">
         <v>389396704</v>
       </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F333" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>332</v>
       </c>
       <c r="B334">
         <v>152860842</v>
       </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F334" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>333</v>
       </c>
       <c r="B335">
         <v>383605033</v>
       </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F335" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>334</v>
       </c>
       <c r="B336">
         <v>434329258</v>
       </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F336" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>335</v>
       </c>
       <c r="B337">
         <v>833864809</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F337" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>336</v>
       </c>
       <c r="B338">
         <v>921303959</v>
       </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F338" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>337</v>
       </c>
       <c r="B339">
         <v>590724065</v>
       </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F339" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>338</v>
       </c>
       <c r="B340">
         <v>224199111</v>
       </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F340" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>339</v>
       </c>
       <c r="B341">
         <v>590860270</v>
       </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F341" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>340</v>
       </c>
       <c r="B342">
         <v>293386867</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F342" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>341</v>
       </c>
       <c r="B343">
         <v>466670105</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F343" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>342</v>
       </c>
       <c r="B344">
         <v>556779712</v>
       </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F344" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>343</v>
       </c>
       <c r="B345">
         <v>895498154</v>
       </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F345" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>344</v>
       </c>
       <c r="B346">
         <v>284279791</v>
       </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F346" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>345</v>
       </c>
       <c r="B347">
         <v>834062306</v>
       </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F347" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>346</v>
       </c>
       <c r="B348">
         <v>452432697</v>
       </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F348" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>347</v>
       </c>
       <c r="B349">
         <v>440865285</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F349" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>348</v>
       </c>
       <c r="B350">
         <v>609086960</v>
       </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F350" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>349</v>
       </c>
       <c r="B351">
         <v>605680155</v>
       </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F351" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>350</v>
       </c>
       <c r="B352">
         <v>788562262</v>
       </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F352" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>351</v>
       </c>
       <c r="B353">
         <v>373307740</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F353" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>352</v>
       </c>
       <c r="B354">
         <v>694661035</v>
       </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F354" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>353</v>
       </c>
       <c r="B355">
         <v>122964675</v>
       </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F355" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>354</v>
       </c>
       <c r="B356">
         <v>834103057</v>
       </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F356" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>355</v>
       </c>
       <c r="B357">
         <v>887240835</v>
       </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F357" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>356</v>
       </c>
       <c r="B358">
         <v>426932239</v>
       </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F358" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>357</v>
       </c>
       <c r="B359">
         <v>633849126</v>
       </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F359" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>358</v>
       </c>
       <c r="B360">
         <v>2275795</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F360" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>359</v>
       </c>
       <c r="B361">
         <v>130220534</v>
       </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F361" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>360</v>
       </c>
       <c r="B362">
         <v>92727120</v>
       </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F362" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>361</v>
       </c>
       <c r="B363">
         <v>66202026</v>
       </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F363" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>362</v>
       </c>
       <c r="B364">
         <v>106908056</v>
       </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F364" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>363</v>
       </c>
       <c r="B365">
         <v>320800236</v>
       </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F365" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>364</v>
       </c>
       <c r="B366">
         <v>222065498</v>
       </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F366" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>365</v>
       </c>
       <c r="B367">
         <v>878246924</v>
       </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F367" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>366</v>
       </c>
       <c r="B368">
         <v>232618720</v>
       </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F368" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>367</v>
       </c>
       <c r="B369">
         <v>516599434</v>
       </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F369" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>368</v>
       </c>
       <c r="B370">
         <v>644547511</v>
       </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F370" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>369</v>
       </c>
       <c r="B371">
         <v>919193952</v>
       </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F371" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>370</v>
       </c>
       <c r="B372">
         <v>862395820</v>
       </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F372" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>371</v>
       </c>
       <c r="B373">
         <v>769461908</v>
       </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F373" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>372</v>
       </c>
       <c r="B374">
         <v>898959885</v>
       </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F374" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>373</v>
       </c>
       <c r="B375">
         <v>322732725</v>
       </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F375" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>374</v>
       </c>
       <c r="B376">
         <v>668930796</v>
       </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F376" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>375</v>
       </c>
       <c r="B377">
         <v>553157005</v>
       </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F377" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>376</v>
       </c>
       <c r="B378">
         <v>170592430</v>
       </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F378" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>377</v>
       </c>
       <c r="B379">
         <v>738154906</v>
       </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F379" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>378</v>
       </c>
       <c r="B380">
         <v>182468761</v>
       </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F380" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>379</v>
       </c>
       <c r="B381">
         <v>605965230</v>
       </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F381" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>380</v>
       </c>
       <c r="B382">
         <v>172793417</v>
       </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F382" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>381</v>
       </c>
       <c r="B383">
         <v>698835242</v>
       </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F383" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>382</v>
       </c>
       <c r="B384">
         <v>690218574</v>
       </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F384" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>383</v>
       </c>
       <c r="B385">
         <v>622877156</v>
       </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F385" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>384</v>
       </c>
       <c r="B386">
         <v>653274280</v>
       </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F386" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>385</v>
       </c>
       <c r="B387">
         <v>153104491</v>
       </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F387" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>386</v>
       </c>
       <c r="B388">
         <v>594805566</v>
       </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F388" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>387</v>
       </c>
       <c r="B389">
         <v>141567460</v>
       </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F389" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>388</v>
       </c>
       <c r="B390">
         <v>153746477</v>
       </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F390" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>389</v>
       </c>
       <c r="B391">
         <v>740457700</v>
       </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F391" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>390</v>
       </c>
       <c r="B392">
         <v>149661835</v>
       </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F392" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>391</v>
       </c>
       <c r="B393">
         <v>729975781</v>
       </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F393" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>392</v>
       </c>
       <c r="B394">
         <v>570820957</v>
       </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F394" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>393</v>
       </c>
       <c r="B395">
         <v>555021995</v>
       </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F395" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>394</v>
       </c>
       <c r="B396">
         <v>319166677</v>
       </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F396" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>395</v>
       </c>
       <c r="B397">
         <v>586615272</v>
       </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F397" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>396</v>
       </c>
       <c r="B398">
         <v>611665637</v>
       </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F398" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>397</v>
       </c>
       <c r="B399">
         <v>696380687</v>
       </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F399" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>398</v>
       </c>
       <c r="B400">
         <v>887474054</v>
       </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F400" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>399</v>
       </c>
       <c r="B401">
         <v>535743019</v>
       </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F401" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>400</v>
       </c>
       <c r="B402">
         <v>962337348</v>
       </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F402" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>401</v>
       </c>
       <c r="B403">
         <v>939561079</v>
       </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F403" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>402</v>
       </c>
       <c r="B404">
         <v>295379853</v>
       </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F404" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>403</v>
       </c>
       <c r="B405">
         <v>727789349</v>
       </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F405" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>404</v>
       </c>
       <c r="B406">
         <v>224678037</v>
       </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F406" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>405</v>
       </c>
       <c r="B407">
         <v>574300993</v>
       </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F407" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>406</v>
       </c>
       <c r="B408">
         <v>450476504</v>
       </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F408" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>407</v>
       </c>
       <c r="B409">
         <v>516911527</v>
       </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F409" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>408</v>
       </c>
       <c r="B410">
         <v>779140576</v>
       </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F410" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>409</v>
       </c>
       <c r="B411">
         <v>373068758</v>
       </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F411" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>410</v>
       </c>
       <c r="B412">
         <v>314530787</v>
       </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F412" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>411</v>
       </c>
       <c r="B413">
         <v>49004808</v>
       </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F413" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>412</v>
       </c>
       <c r="B414">
         <v>469444032</v>
       </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F414" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>413</v>
       </c>
       <c r="B415">
         <v>688571545</v>
       </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F415" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>414</v>
       </c>
       <c r="B416">
         <v>751639375</v>
       </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F416" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>415</v>
       </c>
       <c r="B417">
         <v>231055911</v>
       </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F417" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>416</v>
       </c>
       <c r="B418">
         <v>865999681</v>
       </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F418" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>417</v>
       </c>
       <c r="B419">
         <v>410711521</v>
       </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F419" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>418</v>
       </c>
       <c r="B420">
         <v>742608694</v>
       </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F420" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>419</v>
       </c>
       <c r="B421">
         <v>443016401</v>
       </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F421" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>420</v>
       </c>
       <c r="B422">
         <v>363939135</v>
       </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F422" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>421</v>
       </c>
       <c r="B423">
         <v>35491549</v>
       </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F423" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>422</v>
       </c>
       <c r="B424">
         <v>975327037</v>
       </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F424" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>423</v>
       </c>
       <c r="B425">
         <v>29150706</v>
       </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F425" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>424</v>
       </c>
       <c r="B426">
         <v>91138986</v>
       </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F426" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>425</v>
       </c>
       <c r="B427">
         <v>865839139</v>
       </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F427" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>426</v>
       </c>
       <c r="B428">
         <v>661696892</v>
       </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F428" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>427</v>
       </c>
       <c r="B429">
         <v>976878388</v>
       </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F429" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>428</v>
       </c>
       <c r="B430">
         <v>244140275</v>
       </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F430" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>429</v>
       </c>
       <c r="B431">
         <v>849083947</v>
       </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F431" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>430</v>
       </c>
       <c r="B432">
         <v>449109845</v>
       </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F432" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>431</v>
       </c>
       <c r="B433">
         <v>177144365</v>
       </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F433" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>432</v>
       </c>
       <c r="B434">
         <v>728176576</v>
       </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F434" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>433</v>
       </c>
       <c r="B435">
         <v>314964824</v>
       </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F435" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>434</v>
       </c>
       <c r="B436">
         <v>66805451</v>
       </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F436" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>435</v>
       </c>
       <c r="B437">
         <v>414587059</v>
       </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F437" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>436</v>
       </c>
       <c r="B438">
         <v>987225874</v>
       </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F438" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>437</v>
       </c>
       <c r="B439">
         <v>86511754</v>
       </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F439" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>438</v>
       </c>
       <c r="B440">
         <v>959631233</v>
       </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F440" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>439</v>
       </c>
       <c r="B441">
         <v>412459486</v>
       </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F441" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>440</v>
       </c>
       <c r="B442">
         <v>823807063</v>
       </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F442" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>441</v>
       </c>
       <c r="B443">
         <v>398510549</v>
       </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F443" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>442</v>
       </c>
       <c r="B444">
         <v>62964888</v>
       </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F444" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>443</v>
       </c>
       <c r="B445">
         <v>697648696</v>
       </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F445" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>444</v>
       </c>
       <c r="B446">
         <v>780906571</v>
       </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F446" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>445</v>
       </c>
       <c r="B447">
         <v>304600365</v>
       </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F447" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>446</v>
       </c>
       <c r="B448">
         <v>619688708</v>
       </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F448" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>447</v>
       </c>
       <c r="B449">
         <v>339639013</v>
       </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F449" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>448</v>
       </c>
       <c r="B450">
         <v>403659664</v>
       </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F450" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>449</v>
       </c>
       <c r="B451">
         <v>193463588</v>
       </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F451" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>450</v>
       </c>
       <c r="B452">
         <v>916225046</v>
       </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F452" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>451</v>
       </c>
       <c r="B453">
         <v>117493340</v>
       </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F453" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>452</v>
       </c>
       <c r="B454">
         <v>188698200</v>
       </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F454" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>453</v>
       </c>
       <c r="B455">
         <v>626987759</v>
       </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F455" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>454</v>
       </c>
       <c r="B456">
         <v>509525339</v>
       </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F456" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>455</v>
       </c>
       <c r="B457">
         <v>272452887</v>
       </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F457" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>456</v>
       </c>
       <c r="B458">
         <v>621863039</v>
       </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F458" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>457</v>
       </c>
       <c r="B459">
         <v>510422073</v>
       </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F459" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>458</v>
       </c>
       <c r="B460">
         <v>251788576</v>
       </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F460" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>459</v>
       </c>
       <c r="B461">
         <v>363643725</v>
       </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F461" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>460</v>
       </c>
       <c r="B462">
         <v>39381697</v>
       </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F462" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>461</v>
       </c>
       <c r="B463">
         <v>338802853</v>
       </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F463" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>462</v>
       </c>
       <c r="B464">
         <v>298921689</v>
       </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F464" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>463</v>
       </c>
       <c r="B465">
         <v>513627641</v>
       </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F465" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>464</v>
       </c>
       <c r="B466">
         <v>537736881</v>
       </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F466" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>465</v>
       </c>
       <c r="B467">
         <v>470098364</v>
       </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F467" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>466</v>
       </c>
       <c r="B468">
         <v>751093543</v>
       </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F468" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>467</v>
       </c>
       <c r="B469">
         <v>997153408</v>
       </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F469" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>468</v>
       </c>
       <c r="B470">
         <v>651539805</v>
       </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F470" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>469</v>
       </c>
       <c r="B471">
         <v>257152956</v>
       </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F471" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>470</v>
       </c>
       <c r="B472">
         <v>855942550</v>
       </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F472" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>471</v>
       </c>
       <c r="B473">
         <v>955330547</v>
       </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F473" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>472</v>
       </c>
       <c r="B474">
         <v>419005847</v>
       </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F474" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>473</v>
       </c>
       <c r="B475">
         <v>201798827</v>
       </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F475" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>474</v>
       </c>
       <c r="B476">
         <v>133784125</v>
       </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F476" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>475</v>
       </c>
       <c r="B477">
         <v>616667510</v>
       </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F477" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>476</v>
       </c>
       <c r="B478">
         <v>39422454</v>
       </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F478" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>477</v>
       </c>
       <c r="B479">
         <v>705393212</v>
       </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F479" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>478</v>
       </c>
       <c r="B480">
         <v>994226985</v>
       </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F480" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>479</v>
       </c>
       <c r="B481">
         <v>426955452</v>
       </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F481" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>480</v>
       </c>
       <c r="B482">
         <v>950260304</v>
       </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F482" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>481</v>
       </c>
       <c r="B483">
         <v>647849321</v>
       </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F483" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>482</v>
       </c>
       <c r="B484">
         <v>688088397</v>
       </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F484" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>483</v>
       </c>
       <c r="B485">
         <v>494512800</v>
       </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F485" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>484</v>
       </c>
       <c r="B486">
         <v>890799126</v>
       </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F486" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>485</v>
       </c>
       <c r="B487">
         <v>37300015</v>
       </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F487" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>486</v>
       </c>
       <c r="B488">
         <v>368073517</v>
       </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F488" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>487</v>
       </c>
       <c r="B489">
         <v>768948284</v>
       </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F489" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>488</v>
       </c>
       <c r="B490">
         <v>277362466</v>
       </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F490" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>489</v>
       </c>
       <c r="B491">
         <v>45753781</v>
       </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F491" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>490</v>
       </c>
       <c r="B492">
         <v>754505159</v>
       </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F492" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>491</v>
       </c>
       <c r="B493">
         <v>262598600</v>
       </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F493" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>492</v>
       </c>
       <c r="B494">
         <v>707778211</v>
       </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F494" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>493</v>
       </c>
       <c r="B495">
         <v>688384078</v>
       </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F495" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>494</v>
       </c>
       <c r="B496">
         <v>251139410</v>
       </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F496" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>495</v>
       </c>
       <c r="B497">
         <v>264000981</v>
       </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F497" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>496</v>
       </c>
       <c r="B498">
         <v>785524526</v>
       </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F498" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>497</v>
       </c>
       <c r="B499">
         <v>624858676</v>
       </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F499" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>498</v>
       </c>
       <c r="B500">
         <v>47856725</v>
       </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F500" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>500</v>
       </c>
       <c r="B501">
         <v>455156501</v>
+      </c>
+      <c r="F501" t="s">
+        <v>506</v>
       </c>
     </row>
   </sheetData>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\University\Term 08\Operating System - Dr.ChaleChale\mini_os\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD39220-E986-4957-BE21-A677EEAC8EBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D70EFEF-8D9D-4FA3-8947-2A7F267E7E0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{392730B6-4DE4-4E03-B7A5-A277E46B18EF}"/>
+    <workbookView xWindow="2880" yWindow="2100" windowWidth="17280" windowHeight="9420" xr2:uid="{392730B6-4DE4-4E03-B7A5-A277E46B18EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="512">
   <si>
     <t>U1001</t>
   </si>
@@ -1536,16 +1536,35 @@
     <t>New Password</t>
   </si>
   <si>
-    <t>What is your solution if a user forgot the Pass Word?</t>
-  </si>
-  <si>
-    <t>User gives the New Password, after the first login. New Password: at least 8 chars, including alphabets, numbers, and special chars.</t>
-  </si>
-  <si>
-    <t>Need Password Change</t>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>mjavadtatari</t>
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>Need
+Password
+Change</t>
+  </si>
+  <si>
+    <t>is
+User
+Banned</t>
+  </si>
+  <si>
+    <t>Never</t>
   </si>
 </sst>
 </file>
@@ -1906,10 +1925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB410AC5-42A0-4336-BBC9-409F792AA485}">
-  <dimension ref="A1:F501"/>
+  <dimension ref="A1:H502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A480" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C501" sqref="C501"/>
+    <sheetView tabSelected="1" topLeftCell="D494" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H502" sqref="H502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1918,10 +1937,11 @@
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="26.109375" customWidth="1"/>
     <col min="4" max="4" width="38.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" customWidth="1"/>
+    <col min="5" max="6" width="22.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>499</v>
       </c>
@@ -1935,5510 +1955,7030 @@
         <v>504</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="F1" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>190917118</v>
       </c>
-      <c r="F2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>503</v>
+      </c>
+      <c r="H2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>815334743</v>
       </c>
-      <c r="F3" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>503</v>
+      </c>
+      <c r="H3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>632636403</v>
       </c>
-      <c r="F4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>503</v>
+      </c>
+      <c r="H4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>841554356</v>
       </c>
-      <c r="F5" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>503</v>
+      </c>
+      <c r="H5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <v>849718441</v>
       </c>
-      <c r="F6" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>503</v>
+      </c>
+      <c r="H6" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <v>105619503</v>
       </c>
-      <c r="F7" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>503</v>
+      </c>
+      <c r="H7" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
         <v>214560238</v>
       </c>
-      <c r="F8" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>503</v>
+      </c>
+      <c r="H8" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
         <v>328377381</v>
       </c>
-      <c r="F9" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>503</v>
+      </c>
+      <c r="H9" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
         <v>654127865</v>
       </c>
-      <c r="F10" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>503</v>
+      </c>
+      <c r="H10" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
         <v>629715947</v>
       </c>
-      <c r="F11" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>503</v>
+      </c>
+      <c r="H11" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
         <v>100011053</v>
       </c>
-      <c r="F12" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>503</v>
+      </c>
+      <c r="H12" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
         <v>740872992</v>
       </c>
-      <c r="F13" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>503</v>
+      </c>
+      <c r="H13" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
         <v>954991725</v>
       </c>
-      <c r="F14" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>503</v>
+      </c>
+      <c r="H14" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
         <v>35475262</v>
       </c>
-      <c r="F15" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>503</v>
+      </c>
+      <c r="H15" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
         <v>826106568</v>
       </c>
-      <c r="F16" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>503</v>
+      </c>
+      <c r="H16" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
         <v>829033873</v>
       </c>
-      <c r="F17" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>503</v>
+      </c>
+      <c r="H17" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
         <v>638536317</v>
       </c>
-      <c r="F18" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>503</v>
+      </c>
+      <c r="H18" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
         <v>172451817</v>
       </c>
-      <c r="F19" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>503</v>
+      </c>
+      <c r="H19" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
         <v>3047220</v>
       </c>
-      <c r="F20" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>503</v>
+      </c>
+      <c r="H20" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
         <v>967135963</v>
       </c>
-      <c r="F21" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>503</v>
+      </c>
+      <c r="H21" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
         <v>511307038</v>
       </c>
-      <c r="F22" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>503</v>
+      </c>
+      <c r="H22" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
         <v>296229160</v>
       </c>
-      <c r="F23" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>503</v>
+      </c>
+      <c r="H23" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24">
         <v>585757410</v>
       </c>
-      <c r="F24" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>503</v>
+      </c>
+      <c r="H24" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
         <v>684253311</v>
       </c>
-      <c r="F25" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>503</v>
+      </c>
+      <c r="H25" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26">
         <v>479497934</v>
       </c>
-      <c r="F26" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>503</v>
+      </c>
+      <c r="H26" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27">
         <v>370349668</v>
       </c>
-      <c r="F27" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>503</v>
+      </c>
+      <c r="H27" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28">
         <v>512082364</v>
       </c>
-      <c r="F28" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>503</v>
+      </c>
+      <c r="H28" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29">
         <v>599538217</v>
       </c>
-      <c r="F29" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>503</v>
+      </c>
+      <c r="H29" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30">
         <v>35915500</v>
       </c>
-      <c r="F30" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>503</v>
+      </c>
+      <c r="H30" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31">
         <v>78824233</v>
       </c>
-      <c r="F31" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>503</v>
+      </c>
+      <c r="H31" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32">
         <v>697996321</v>
       </c>
-      <c r="F32" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>503</v>
+      </c>
+      <c r="H32" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33">
         <v>434053972</v>
       </c>
-      <c r="F33" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>503</v>
+      </c>
+      <c r="H33" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34">
         <v>735721388</v>
       </c>
-      <c r="F34" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>503</v>
+      </c>
+      <c r="H34" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35">
         <v>581678332</v>
       </c>
-      <c r="F35" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" t="s">
+        <v>503</v>
+      </c>
+      <c r="H35" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36">
         <v>122451286</v>
       </c>
-      <c r="F36" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" t="s">
+        <v>503</v>
+      </c>
+      <c r="H36" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37">
         <v>931122748</v>
       </c>
-      <c r="F37" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" t="s">
+        <v>503</v>
+      </c>
+      <c r="H37" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38">
         <v>210865821</v>
       </c>
-      <c r="F38" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>503</v>
+      </c>
+      <c r="H38" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39">
         <v>245782735</v>
       </c>
-      <c r="F39" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>503</v>
+      </c>
+      <c r="H39" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40">
         <v>85015375</v>
       </c>
-      <c r="F40" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" t="s">
+        <v>503</v>
+      </c>
+      <c r="H40" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41">
         <v>524658711</v>
       </c>
-      <c r="F41" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>503</v>
+      </c>
+      <c r="H41" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42">
         <v>596804777</v>
       </c>
-      <c r="F42" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" t="s">
+        <v>503</v>
+      </c>
+      <c r="H42" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43">
         <v>258219696</v>
       </c>
-      <c r="F43" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" t="s">
+        <v>503</v>
+      </c>
+      <c r="H43" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44">
         <v>486745810</v>
       </c>
-      <c r="F44" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" t="s">
+        <v>503</v>
+      </c>
+      <c r="H44" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45">
         <v>720978887</v>
       </c>
-      <c r="F45" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" t="s">
+        <v>503</v>
+      </c>
+      <c r="H45" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46">
         <v>112355587</v>
       </c>
-      <c r="F46" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" t="s">
+        <v>503</v>
+      </c>
+      <c r="H46" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
       <c r="B47">
         <v>665971683</v>
       </c>
-      <c r="F47" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" t="s">
+        <v>503</v>
+      </c>
+      <c r="H47" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
       <c r="B48">
         <v>566569332</v>
       </c>
-      <c r="F48" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" t="s">
+        <v>503</v>
+      </c>
+      <c r="H48" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49">
         <v>14606768</v>
       </c>
-      <c r="F49" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" t="s">
+        <v>503</v>
+      </c>
+      <c r="H49" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50">
         <v>657423173</v>
       </c>
-      <c r="F50" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" t="s">
+        <v>503</v>
+      </c>
+      <c r="H50" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
       <c r="B51">
         <v>15639772</v>
       </c>
-      <c r="F51" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
+        <v>503</v>
+      </c>
+      <c r="H51" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
       <c r="B52">
         <v>751290107</v>
       </c>
-      <c r="F52" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" t="s">
+        <v>503</v>
+      </c>
+      <c r="H52" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
       <c r="B53">
         <v>783679778</v>
       </c>
-      <c r="F53" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" t="s">
+        <v>503</v>
+      </c>
+      <c r="H53" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
       <c r="B54">
         <v>515464430</v>
       </c>
-      <c r="F54" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" t="s">
+        <v>503</v>
+      </c>
+      <c r="H54" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
       <c r="B55">
         <v>846180320</v>
       </c>
-      <c r="F55" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" t="s">
+        <v>503</v>
+      </c>
+      <c r="H55" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
       <c r="B56">
         <v>255404125</v>
       </c>
-      <c r="F56" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" t="s">
+        <v>503</v>
+      </c>
+      <c r="H56" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
       <c r="B57">
         <v>243484874</v>
       </c>
-      <c r="F57" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" t="s">
+        <v>503</v>
+      </c>
+      <c r="H57" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
       <c r="B58">
         <v>923927668</v>
       </c>
-      <c r="F58" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" t="s">
+        <v>503</v>
+      </c>
+      <c r="H58" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>57</v>
       </c>
       <c r="B59">
         <v>252576886</v>
       </c>
-      <c r="F59" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" t="s">
+        <v>503</v>
+      </c>
+      <c r="H59" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>58</v>
       </c>
       <c r="B60">
         <v>752354184</v>
       </c>
-      <c r="F60" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" t="s">
+        <v>503</v>
+      </c>
+      <c r="H60" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>59</v>
       </c>
       <c r="B61">
         <v>539612757</v>
       </c>
-      <c r="F61" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" t="s">
+        <v>503</v>
+      </c>
+      <c r="H61" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>60</v>
       </c>
       <c r="B62">
         <v>19973003</v>
       </c>
-      <c r="F62" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" t="s">
+        <v>503</v>
+      </c>
+      <c r="H62" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>61</v>
       </c>
       <c r="B63">
         <v>478255426</v>
       </c>
-      <c r="F63" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" t="s">
+        <v>503</v>
+      </c>
+      <c r="H63" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>62</v>
       </c>
       <c r="B64">
         <v>773332049</v>
       </c>
-      <c r="F64" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" t="s">
+        <v>503</v>
+      </c>
+      <c r="H64" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>63</v>
       </c>
       <c r="B65">
         <v>413745371</v>
       </c>
-      <c r="F65" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" t="s">
+        <v>503</v>
+      </c>
+      <c r="H65" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>64</v>
       </c>
       <c r="B66">
         <v>63202597</v>
       </c>
-      <c r="F66" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" t="s">
+        <v>503</v>
+      </c>
+      <c r="H66" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>65</v>
       </c>
       <c r="B67">
         <v>423629765</v>
       </c>
-      <c r="F67" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" t="s">
+        <v>503</v>
+      </c>
+      <c r="H67" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>66</v>
       </c>
       <c r="B68">
         <v>93715465</v>
       </c>
-      <c r="F68" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" t="s">
+        <v>503</v>
+      </c>
+      <c r="H68" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>67</v>
       </c>
       <c r="B69">
         <v>613000390</v>
       </c>
-      <c r="F69" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" t="s">
+        <v>503</v>
+      </c>
+      <c r="H69" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>68</v>
       </c>
       <c r="B70">
         <v>874743829</v>
       </c>
-      <c r="F70" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" t="s">
+        <v>503</v>
+      </c>
+      <c r="H70" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>69</v>
       </c>
       <c r="B71">
         <v>874880591</v>
       </c>
-      <c r="F71" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" t="s">
+        <v>503</v>
+      </c>
+      <c r="H71" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>70</v>
       </c>
       <c r="B72">
         <v>179970848</v>
       </c>
-      <c r="F72" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" t="s">
+        <v>503</v>
+      </c>
+      <c r="H72" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>71</v>
       </c>
       <c r="B73">
         <v>891001000</v>
       </c>
-      <c r="F73" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" t="s">
+        <v>503</v>
+      </c>
+      <c r="H73" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>72</v>
       </c>
       <c r="B74">
         <v>100397800</v>
       </c>
-      <c r="F74" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" t="s">
+        <v>503</v>
+      </c>
+      <c r="H74" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>73</v>
       </c>
       <c r="B75">
         <v>820455738</v>
       </c>
-      <c r="F75" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" t="s">
+        <v>503</v>
+      </c>
+      <c r="H75" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>74</v>
       </c>
       <c r="B76">
         <v>105283942</v>
       </c>
-      <c r="F76" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" t="s">
+        <v>503</v>
+      </c>
+      <c r="H76" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>75</v>
       </c>
       <c r="B77">
         <v>648680149</v>
       </c>
-      <c r="F77" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" t="s">
+        <v>503</v>
+      </c>
+      <c r="H77" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>76</v>
       </c>
       <c r="B78">
         <v>258653309</v>
       </c>
-      <c r="F78" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" t="s">
+        <v>503</v>
+      </c>
+      <c r="H78" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>77</v>
       </c>
       <c r="B79">
         <v>606984527</v>
       </c>
-      <c r="F79" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" t="s">
+        <v>503</v>
+      </c>
+      <c r="H79" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
       <c r="B80">
         <v>101345222</v>
       </c>
-      <c r="F80" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" t="s">
+        <v>503</v>
+      </c>
+      <c r="H80" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>79</v>
       </c>
       <c r="B81">
         <v>693277908</v>
       </c>
-      <c r="F81" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" t="s">
+        <v>503</v>
+      </c>
+      <c r="H81" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>80</v>
       </c>
       <c r="B82">
         <v>377369552</v>
       </c>
-      <c r="F82" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" t="s">
+        <v>503</v>
+      </c>
+      <c r="H82" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>81</v>
       </c>
       <c r="B83">
         <v>174280502</v>
       </c>
-      <c r="F83" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" t="s">
+        <v>503</v>
+      </c>
+      <c r="H83" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>82</v>
       </c>
       <c r="B84">
         <v>460819413</v>
       </c>
-      <c r="F84" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84" t="s">
+        <v>503</v>
+      </c>
+      <c r="H84" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>83</v>
       </c>
       <c r="B85">
         <v>358378235</v>
       </c>
-      <c r="F85" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85" t="s">
+        <v>503</v>
+      </c>
+      <c r="H85" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>84</v>
       </c>
       <c r="B86">
         <v>667722126</v>
       </c>
-      <c r="F86" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86" t="s">
+        <v>503</v>
+      </c>
+      <c r="H86" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>85</v>
       </c>
       <c r="B87">
         <v>721552857</v>
       </c>
-      <c r="F87" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87" t="s">
+        <v>503</v>
+      </c>
+      <c r="H87" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>86</v>
       </c>
       <c r="B88">
         <v>737882505</v>
       </c>
-      <c r="F88" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88" t="s">
+        <v>503</v>
+      </c>
+      <c r="H88" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>87</v>
       </c>
       <c r="B89">
         <v>39583717</v>
       </c>
-      <c r="F89" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89" t="s">
+        <v>503</v>
+      </c>
+      <c r="H89" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>88</v>
       </c>
       <c r="B90">
         <v>562296746</v>
       </c>
-      <c r="F90" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90" t="s">
+        <v>503</v>
+      </c>
+      <c r="H90" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>89</v>
       </c>
       <c r="B91">
         <v>6560832</v>
       </c>
-      <c r="F91" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91" t="s">
+        <v>503</v>
+      </c>
+      <c r="H91" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>90</v>
       </c>
       <c r="B92">
         <v>318479705</v>
       </c>
-      <c r="F92" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92" t="s">
+        <v>503</v>
+      </c>
+      <c r="H92" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>91</v>
       </c>
       <c r="B93">
         <v>110591378</v>
       </c>
-      <c r="F93" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93" t="s">
+        <v>503</v>
+      </c>
+      <c r="H93" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>92</v>
       </c>
       <c r="B94">
         <v>620837461</v>
       </c>
-      <c r="F94" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94" t="s">
+        <v>503</v>
+      </c>
+      <c r="H94" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>93</v>
       </c>
       <c r="B95">
         <v>310743255</v>
       </c>
-      <c r="F95" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95" t="s">
+        <v>503</v>
+      </c>
+      <c r="H95" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>94</v>
       </c>
       <c r="B96">
         <v>798073887</v>
       </c>
-      <c r="F96" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96" t="s">
+        <v>503</v>
+      </c>
+      <c r="H96" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>95</v>
       </c>
       <c r="B97">
         <v>689348483</v>
       </c>
-      <c r="F97" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97" t="s">
+        <v>503</v>
+      </c>
+      <c r="H97" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>96</v>
       </c>
       <c r="B98">
         <v>748341303</v>
       </c>
-      <c r="F98" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98" t="s">
+        <v>503</v>
+      </c>
+      <c r="H98" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>97</v>
       </c>
       <c r="B99">
         <v>963945886</v>
       </c>
-      <c r="F99" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99" t="s">
+        <v>503</v>
+      </c>
+      <c r="H99" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>98</v>
       </c>
       <c r="B100">
         <v>247660321</v>
       </c>
-      <c r="F100" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100" t="s">
+        <v>503</v>
+      </c>
+      <c r="H100" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>99</v>
       </c>
       <c r="B101">
         <v>19959374</v>
       </c>
-      <c r="F101" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G101" t="s">
+        <v>503</v>
+      </c>
+      <c r="H101" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>100</v>
       </c>
       <c r="B102">
         <v>275398534</v>
       </c>
-      <c r="F102" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G102" t="s">
+        <v>503</v>
+      </c>
+      <c r="H102" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>101</v>
       </c>
       <c r="B103">
         <v>452592038</v>
       </c>
-      <c r="F103" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G103" t="s">
+        <v>503</v>
+      </c>
+      <c r="H103" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>102</v>
       </c>
       <c r="B104">
         <v>356592286</v>
       </c>
-      <c r="F104" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G104" t="s">
+        <v>503</v>
+      </c>
+      <c r="H104" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>103</v>
       </c>
       <c r="B105">
         <v>331761214</v>
       </c>
-      <c r="F105" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G105" t="s">
+        <v>503</v>
+      </c>
+      <c r="H105" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>104</v>
       </c>
       <c r="B106">
         <v>14436557</v>
       </c>
-      <c r="F106" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G106" t="s">
+        <v>503</v>
+      </c>
+      <c r="H106" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>105</v>
       </c>
       <c r="B107">
         <v>809578262</v>
       </c>
-      <c r="F107" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G107" t="s">
+        <v>503</v>
+      </c>
+      <c r="H107" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>106</v>
       </c>
       <c r="B108">
         <v>534701951</v>
       </c>
-      <c r="F108" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G108" t="s">
+        <v>503</v>
+      </c>
+      <c r="H108" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>107</v>
       </c>
       <c r="B109">
         <v>994860017</v>
       </c>
-      <c r="F109" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G109" t="s">
+        <v>503</v>
+      </c>
+      <c r="H109" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>108</v>
       </c>
       <c r="B110">
         <v>89270044</v>
       </c>
-      <c r="F110" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G110" t="s">
+        <v>503</v>
+      </c>
+      <c r="H110" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>109</v>
       </c>
       <c r="B111">
         <v>307793</v>
       </c>
-      <c r="F111" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G111" t="s">
+        <v>503</v>
+      </c>
+      <c r="H111" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>110</v>
       </c>
       <c r="B112">
         <v>131168187</v>
       </c>
-      <c r="F112" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G112" t="s">
+        <v>503</v>
+      </c>
+      <c r="H112" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>111</v>
       </c>
       <c r="B113">
         <v>53587161</v>
       </c>
-      <c r="F113" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G113" t="s">
+        <v>503</v>
+      </c>
+      <c r="H113" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>112</v>
       </c>
       <c r="B114">
         <v>927350966</v>
       </c>
-      <c r="F114" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G114" t="s">
+        <v>503</v>
+      </c>
+      <c r="H114" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>113</v>
       </c>
       <c r="B115">
         <v>516760719</v>
       </c>
-      <c r="F115" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G115" t="s">
+        <v>503</v>
+      </c>
+      <c r="H115" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>114</v>
       </c>
       <c r="B116">
         <v>569323663</v>
       </c>
-      <c r="F116" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G116" t="s">
+        <v>503</v>
+      </c>
+      <c r="H116" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>115</v>
       </c>
       <c r="B117">
         <v>720958147</v>
       </c>
-      <c r="F117" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G117" t="s">
+        <v>503</v>
+      </c>
+      <c r="H117" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>116</v>
       </c>
       <c r="B118">
         <v>603170349</v>
       </c>
-      <c r="F118" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G118" t="s">
+        <v>503</v>
+      </c>
+      <c r="H118" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>117</v>
       </c>
       <c r="B119">
         <v>498324296</v>
       </c>
-      <c r="F119" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G119" t="s">
+        <v>503</v>
+      </c>
+      <c r="H119" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>118</v>
       </c>
       <c r="B120">
         <v>825649442</v>
       </c>
-      <c r="F120" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G120" t="s">
+        <v>503</v>
+      </c>
+      <c r="H120" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>119</v>
       </c>
       <c r="B121">
         <v>448126502</v>
       </c>
-      <c r="F121" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G121" t="s">
+        <v>503</v>
+      </c>
+      <c r="H121" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>120</v>
       </c>
       <c r="B122">
         <v>70970066</v>
       </c>
-      <c r="F122" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G122" t="s">
+        <v>503</v>
+      </c>
+      <c r="H122" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>121</v>
       </c>
       <c r="B123">
         <v>85064582</v>
       </c>
-      <c r="F123" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G123" t="s">
+        <v>503</v>
+      </c>
+      <c r="H123" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>122</v>
       </c>
       <c r="B124">
         <v>974761976</v>
       </c>
-      <c r="F124" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G124" t="s">
+        <v>503</v>
+      </c>
+      <c r="H124" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>123</v>
       </c>
       <c r="B125">
         <v>985024438</v>
       </c>
-      <c r="F125" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G125" t="s">
+        <v>503</v>
+      </c>
+      <c r="H125" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>124</v>
       </c>
       <c r="B126">
         <v>60939597</v>
       </c>
-      <c r="F126" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G126" t="s">
+        <v>503</v>
+      </c>
+      <c r="H126" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>125</v>
       </c>
       <c r="B127">
         <v>907712388</v>
       </c>
-      <c r="F127" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G127" t="s">
+        <v>503</v>
+      </c>
+      <c r="H127" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>126</v>
       </c>
       <c r="B128">
         <v>708975018</v>
       </c>
-      <c r="F128" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G128" t="s">
+        <v>503</v>
+      </c>
+      <c r="H128" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>127</v>
       </c>
       <c r="B129">
         <v>752463270</v>
       </c>
-      <c r="F129" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G129" t="s">
+        <v>503</v>
+      </c>
+      <c r="H129" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>128</v>
       </c>
       <c r="B130">
         <v>506016291</v>
       </c>
-      <c r="F130" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G130" t="s">
+        <v>503</v>
+      </c>
+      <c r="H130" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>129</v>
       </c>
       <c r="B131">
         <v>596966980</v>
       </c>
-      <c r="F131" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G131" t="s">
+        <v>503</v>
+      </c>
+      <c r="H131" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>130</v>
       </c>
       <c r="B132">
         <v>237684431</v>
       </c>
-      <c r="F132" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G132" t="s">
+        <v>503</v>
+      </c>
+      <c r="H132" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>131</v>
       </c>
       <c r="B133">
         <v>994611001</v>
       </c>
-      <c r="F133" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G133" t="s">
+        <v>503</v>
+      </c>
+      <c r="H133" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>132</v>
       </c>
       <c r="B134">
         <v>614814254</v>
       </c>
-      <c r="F134" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G134" t="s">
+        <v>503</v>
+      </c>
+      <c r="H134" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>133</v>
       </c>
       <c r="B135">
         <v>215214635</v>
       </c>
-      <c r="F135" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G135" t="s">
+        <v>503</v>
+      </c>
+      <c r="H135" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>134</v>
       </c>
       <c r="B136">
         <v>256015655</v>
       </c>
-      <c r="F136" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G136" t="s">
+        <v>503</v>
+      </c>
+      <c r="H136" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>135</v>
       </c>
       <c r="B137">
         <v>991552580</v>
       </c>
-      <c r="F137" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G137" t="s">
+        <v>503</v>
+      </c>
+      <c r="H137" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>136</v>
       </c>
       <c r="B138">
         <v>432014222</v>
       </c>
-      <c r="F138" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G138" t="s">
+        <v>503</v>
+      </c>
+      <c r="H138" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>137</v>
       </c>
       <c r="B139">
         <v>282312484</v>
       </c>
-      <c r="F139" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G139" t="s">
+        <v>503</v>
+      </c>
+      <c r="H139" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>138</v>
       </c>
       <c r="B140">
         <v>287498239</v>
       </c>
-      <c r="F140" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G140" t="s">
+        <v>503</v>
+      </c>
+      <c r="H140" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>139</v>
       </c>
       <c r="B141">
         <v>447254780</v>
       </c>
-      <c r="F141" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G141" t="s">
+        <v>503</v>
+      </c>
+      <c r="H141" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>140</v>
       </c>
       <c r="B142">
         <v>590983540</v>
       </c>
-      <c r="F142" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G142" t="s">
+        <v>503</v>
+      </c>
+      <c r="H142" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>141</v>
       </c>
       <c r="B143">
         <v>347429366</v>
       </c>
-      <c r="F143" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G143" t="s">
+        <v>503</v>
+      </c>
+      <c r="H143" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>142</v>
       </c>
       <c r="B144">
         <v>827394368</v>
       </c>
-      <c r="F144" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G144" t="s">
+        <v>503</v>
+      </c>
+      <c r="H144" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>143</v>
       </c>
       <c r="B145">
         <v>23494520</v>
       </c>
-      <c r="F145" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G145" t="s">
+        <v>503</v>
+      </c>
+      <c r="H145" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>144</v>
       </c>
       <c r="B146">
         <v>459064132</v>
       </c>
-      <c r="F146" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G146" t="s">
+        <v>503</v>
+      </c>
+      <c r="H146" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>145</v>
       </c>
       <c r="B147">
         <v>875961882</v>
       </c>
-      <c r="F147" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G147" t="s">
+        <v>503</v>
+      </c>
+      <c r="H147" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>146</v>
       </c>
       <c r="B148">
         <v>804019997</v>
       </c>
-      <c r="F148" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G148" t="s">
+        <v>503</v>
+      </c>
+      <c r="H148" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>147</v>
       </c>
       <c r="B149">
         <v>747884938</v>
       </c>
-      <c r="F149" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G149" t="s">
+        <v>503</v>
+      </c>
+      <c r="H149" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>148</v>
       </c>
       <c r="B150">
         <v>732676614</v>
       </c>
-      <c r="F150" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G150" t="s">
+        <v>503</v>
+      </c>
+      <c r="H150" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>149</v>
       </c>
       <c r="B151">
         <v>24070754</v>
       </c>
-      <c r="F151" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G151" t="s">
+        <v>503</v>
+      </c>
+      <c r="H151" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>150</v>
       </c>
       <c r="B152">
         <v>155462842</v>
       </c>
-      <c r="F152" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G152" t="s">
+        <v>503</v>
+      </c>
+      <c r="H152" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>151</v>
       </c>
       <c r="B153">
         <v>186840951</v>
       </c>
-      <c r="F153" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G153" t="s">
+        <v>503</v>
+      </c>
+      <c r="H153" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>152</v>
       </c>
       <c r="B154">
         <v>377403166</v>
       </c>
-      <c r="F154" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G154" t="s">
+        <v>503</v>
+      </c>
+      <c r="H154" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>153</v>
       </c>
       <c r="B155">
         <v>185538163</v>
       </c>
-      <c r="F155" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G155" t="s">
+        <v>503</v>
+      </c>
+      <c r="H155" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>154</v>
       </c>
       <c r="B156">
         <v>556316048</v>
       </c>
-      <c r="F156" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G156" t="s">
+        <v>503</v>
+      </c>
+      <c r="H156" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>155</v>
       </c>
       <c r="B157">
         <v>773963797</v>
       </c>
-      <c r="F157" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G157" t="s">
+        <v>503</v>
+      </c>
+      <c r="H157" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>156</v>
       </c>
       <c r="B158">
         <v>844932233</v>
       </c>
-      <c r="F158" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G158" t="s">
+        <v>503</v>
+      </c>
+      <c r="H158" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>157</v>
       </c>
       <c r="B159">
         <v>570203920</v>
       </c>
-      <c r="F159" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G159" t="s">
+        <v>503</v>
+      </c>
+      <c r="H159" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>158</v>
       </c>
       <c r="B160">
         <v>388241859</v>
       </c>
-      <c r="F160" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G160" t="s">
+        <v>503</v>
+      </c>
+      <c r="H160" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>159</v>
       </c>
       <c r="B161">
         <v>771827223</v>
       </c>
-      <c r="F161" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G161" t="s">
+        <v>503</v>
+      </c>
+      <c r="H161" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>160</v>
       </c>
       <c r="B162">
         <v>744730778</v>
       </c>
-      <c r="F162" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G162" t="s">
+        <v>503</v>
+      </c>
+      <c r="H162" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>161</v>
       </c>
       <c r="B163">
         <v>359167108</v>
       </c>
-      <c r="F163" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G163" t="s">
+        <v>503</v>
+      </c>
+      <c r="H163" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>162</v>
       </c>
       <c r="B164">
         <v>242989829</v>
       </c>
-      <c r="F164" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G164" t="s">
+        <v>503</v>
+      </c>
+      <c r="H164" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>163</v>
       </c>
       <c r="B165">
         <v>383682386</v>
       </c>
-      <c r="F165" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G165" t="s">
+        <v>503</v>
+      </c>
+      <c r="H165" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>164</v>
       </c>
       <c r="B166">
         <v>701377031</v>
       </c>
-      <c r="F166" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G166" t="s">
+        <v>503</v>
+      </c>
+      <c r="H166" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>165</v>
       </c>
       <c r="B167">
         <v>451627007</v>
       </c>
-      <c r="F167" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G167" t="s">
+        <v>503</v>
+      </c>
+      <c r="H167" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>166</v>
       </c>
       <c r="B168">
         <v>547520425</v>
       </c>
-      <c r="F168" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G168" t="s">
+        <v>503</v>
+      </c>
+      <c r="H168" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>167</v>
       </c>
       <c r="B169">
         <v>703756609</v>
       </c>
-      <c r="F169" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G169" t="s">
+        <v>503</v>
+      </c>
+      <c r="H169" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>168</v>
       </c>
       <c r="B170">
         <v>861031358</v>
       </c>
-      <c r="F170" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G170" t="s">
+        <v>503</v>
+      </c>
+      <c r="H170" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>169</v>
       </c>
       <c r="B171">
         <v>839321379</v>
       </c>
-      <c r="F171" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G171" t="s">
+        <v>503</v>
+      </c>
+      <c r="H171" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>170</v>
       </c>
       <c r="B172">
         <v>729021912</v>
       </c>
-      <c r="F172" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G172" t="s">
+        <v>503</v>
+      </c>
+      <c r="H172" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>171</v>
       </c>
       <c r="B173">
         <v>315562732</v>
       </c>
-      <c r="F173" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G173" t="s">
+        <v>503</v>
+      </c>
+      <c r="H173" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>172</v>
       </c>
       <c r="B174">
         <v>980156132</v>
       </c>
-      <c r="F174" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G174" t="s">
+        <v>503</v>
+      </c>
+      <c r="H174" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>173</v>
       </c>
       <c r="B175">
         <v>181534294</v>
       </c>
-      <c r="F175" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G175" t="s">
+        <v>503</v>
+      </c>
+      <c r="H175" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>174</v>
       </c>
       <c r="B176">
         <v>109491300</v>
       </c>
-      <c r="F176" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G176" t="s">
+        <v>503</v>
+      </c>
+      <c r="H176" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>175</v>
       </c>
       <c r="B177">
         <v>423550567</v>
       </c>
-      <c r="F177" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G177" t="s">
+        <v>503</v>
+      </c>
+      <c r="H177" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>176</v>
       </c>
       <c r="B178">
         <v>768438519</v>
       </c>
-      <c r="F178" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G178" t="s">
+        <v>503</v>
+      </c>
+      <c r="H178" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>177</v>
       </c>
       <c r="B179">
         <v>983242629</v>
       </c>
-      <c r="F179" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G179" t="s">
+        <v>503</v>
+      </c>
+      <c r="H179" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>178</v>
       </c>
       <c r="B180">
         <v>981800988</v>
       </c>
-      <c r="F180" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G180" t="s">
+        <v>503</v>
+      </c>
+      <c r="H180" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>179</v>
       </c>
       <c r="B181">
         <v>428804284</v>
       </c>
-      <c r="F181" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G181" t="s">
+        <v>503</v>
+      </c>
+      <c r="H181" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>180</v>
       </c>
       <c r="B182">
         <v>621537561</v>
       </c>
-      <c r="F182" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G182" t="s">
+        <v>503</v>
+      </c>
+      <c r="H182" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>181</v>
       </c>
       <c r="B183">
         <v>594419821</v>
       </c>
-      <c r="F183" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G183" t="s">
+        <v>503</v>
+      </c>
+      <c r="H183" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>182</v>
       </c>
       <c r="B184">
         <v>323902523</v>
       </c>
-      <c r="F184" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G184" t="s">
+        <v>503</v>
+      </c>
+      <c r="H184" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>183</v>
       </c>
       <c r="B185">
         <v>580840259</v>
       </c>
-      <c r="F185" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G185" t="s">
+        <v>503</v>
+      </c>
+      <c r="H185" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>184</v>
       </c>
       <c r="B186">
         <v>261084343</v>
       </c>
-      <c r="F186" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G186" t="s">
+        <v>503</v>
+      </c>
+      <c r="H186" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>185</v>
       </c>
       <c r="B187">
         <v>821549564</v>
       </c>
-      <c r="F187" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G187" t="s">
+        <v>503</v>
+      </c>
+      <c r="H187" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>186</v>
       </c>
       <c r="B188">
         <v>311999769</v>
       </c>
-      <c r="F188" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G188" t="s">
+        <v>503</v>
+      </c>
+      <c r="H188" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>187</v>
       </c>
       <c r="B189">
         <v>328649857</v>
       </c>
-      <c r="F189" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G189" t="s">
+        <v>503</v>
+      </c>
+      <c r="H189" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>188</v>
       </c>
       <c r="B190">
         <v>983904522</v>
       </c>
-      <c r="F190" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G190" t="s">
+        <v>503</v>
+      </c>
+      <c r="H190" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>189</v>
       </c>
       <c r="B191">
         <v>780205030</v>
       </c>
-      <c r="F191" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G191" t="s">
+        <v>503</v>
+      </c>
+      <c r="H191" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>190</v>
       </c>
       <c r="B192">
         <v>599303005</v>
       </c>
-      <c r="F192" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G192" t="s">
+        <v>503</v>
+      </c>
+      <c r="H192" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>191</v>
       </c>
       <c r="B193">
         <v>181681820</v>
       </c>
-      <c r="F193" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G193" t="s">
+        <v>503</v>
+      </c>
+      <c r="H193" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>192</v>
       </c>
       <c r="B194">
         <v>950387017</v>
       </c>
-      <c r="F194" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G194" t="s">
+        <v>503</v>
+      </c>
+      <c r="H194" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>193</v>
       </c>
       <c r="B195">
         <v>328458188</v>
       </c>
-      <c r="F195" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G195" t="s">
+        <v>503</v>
+      </c>
+      <c r="H195" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>194</v>
       </c>
       <c r="B196">
         <v>309878829</v>
       </c>
-      <c r="F196" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G196" t="s">
+        <v>503</v>
+      </c>
+      <c r="H196" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>195</v>
       </c>
       <c r="B197">
         <v>890466609</v>
       </c>
-      <c r="F197" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G197" t="s">
+        <v>503</v>
+      </c>
+      <c r="H197" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>196</v>
       </c>
       <c r="B198">
         <v>457899867</v>
       </c>
-      <c r="F198" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G198" t="s">
+        <v>503</v>
+      </c>
+      <c r="H198" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>197</v>
       </c>
       <c r="B199">
         <v>608328333</v>
       </c>
-      <c r="F199" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G199" t="s">
+        <v>503</v>
+      </c>
+      <c r="H199" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>198</v>
       </c>
       <c r="B200">
         <v>896775682</v>
       </c>
-      <c r="F200" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G200" t="s">
+        <v>503</v>
+      </c>
+      <c r="H200" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>199</v>
       </c>
       <c r="B201">
         <v>944344867</v>
       </c>
-      <c r="F201" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G201" t="s">
+        <v>503</v>
+      </c>
+      <c r="H201" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>200</v>
       </c>
       <c r="B202">
         <v>550379758</v>
       </c>
-      <c r="F202" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G202" t="s">
+        <v>503</v>
+      </c>
+      <c r="H202" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>201</v>
       </c>
       <c r="B203">
         <v>18148972</v>
       </c>
-      <c r="F203" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G203" t="s">
+        <v>503</v>
+      </c>
+      <c r="H203" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>202</v>
       </c>
       <c r="B204">
         <v>917066680</v>
       </c>
-      <c r="F204" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G204" t="s">
+        <v>503</v>
+      </c>
+      <c r="H204" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>203</v>
       </c>
       <c r="B205">
         <v>184334008</v>
       </c>
-      <c r="F205" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G205" t="s">
+        <v>503</v>
+      </c>
+      <c r="H205" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>204</v>
       </c>
       <c r="B206">
         <v>30743540</v>
       </c>
-      <c r="F206" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G206" t="s">
+        <v>503</v>
+      </c>
+      <c r="H206" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>205</v>
       </c>
       <c r="B207">
         <v>720526423</v>
       </c>
-      <c r="F207" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G207" t="s">
+        <v>503</v>
+      </c>
+      <c r="H207" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>206</v>
       </c>
       <c r="B208">
         <v>738887187</v>
       </c>
-      <c r="F208" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G208" t="s">
+        <v>503</v>
+      </c>
+      <c r="H208" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>207</v>
       </c>
       <c r="B209">
         <v>247547732</v>
       </c>
-      <c r="F209" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G209" t="s">
+        <v>503</v>
+      </c>
+      <c r="H209" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>208</v>
       </c>
       <c r="B210">
         <v>161463408</v>
       </c>
-      <c r="F210" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G210" t="s">
+        <v>503</v>
+      </c>
+      <c r="H210" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>209</v>
       </c>
       <c r="B211">
         <v>187554316</v>
       </c>
-      <c r="F211" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G211" t="s">
+        <v>503</v>
+      </c>
+      <c r="H211" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>210</v>
       </c>
       <c r="B212">
         <v>269761907</v>
       </c>
-      <c r="F212" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G212" t="s">
+        <v>503</v>
+      </c>
+      <c r="H212" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>211</v>
       </c>
       <c r="B213">
         <v>994099621</v>
       </c>
-      <c r="F213" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G213" t="s">
+        <v>503</v>
+      </c>
+      <c r="H213" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>212</v>
       </c>
       <c r="B214">
         <v>686956751</v>
       </c>
-      <c r="F214" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G214" t="s">
+        <v>503</v>
+      </c>
+      <c r="H214" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>213</v>
       </c>
       <c r="B215">
         <v>343511293</v>
       </c>
-      <c r="F215" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G215" t="s">
+        <v>503</v>
+      </c>
+      <c r="H215" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>214</v>
       </c>
       <c r="B216">
         <v>247936776</v>
       </c>
-      <c r="F216" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G216" t="s">
+        <v>503</v>
+      </c>
+      <c r="H216" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>215</v>
       </c>
       <c r="B217">
         <v>792274234</v>
       </c>
-      <c r="F217" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G217" t="s">
+        <v>503</v>
+      </c>
+      <c r="H217" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>216</v>
       </c>
       <c r="B218">
         <v>855470834</v>
       </c>
-      <c r="F218" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G218" t="s">
+        <v>503</v>
+      </c>
+      <c r="H218" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>217</v>
       </c>
       <c r="B219">
         <v>447026601</v>
       </c>
-      <c r="F219" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G219" t="s">
+        <v>503</v>
+      </c>
+      <c r="H219" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>218</v>
       </c>
       <c r="B220">
         <v>290373693</v>
       </c>
-      <c r="F220" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G220" t="s">
+        <v>503</v>
+      </c>
+      <c r="H220" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>219</v>
       </c>
       <c r="B221">
         <v>639422313</v>
       </c>
-      <c r="F221" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G221" t="s">
+        <v>503</v>
+      </c>
+      <c r="H221" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>220</v>
       </c>
       <c r="B222">
         <v>657832550</v>
       </c>
-      <c r="F222" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G222" t="s">
+        <v>503</v>
+      </c>
+      <c r="H222" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>221</v>
       </c>
       <c r="B223">
         <v>457358617</v>
       </c>
-      <c r="F223" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G223" t="s">
+        <v>503</v>
+      </c>
+      <c r="H223" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>222</v>
       </c>
       <c r="B224">
         <v>139878966</v>
       </c>
-      <c r="F224" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G224" t="s">
+        <v>503</v>
+      </c>
+      <c r="H224" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>223</v>
       </c>
       <c r="B225">
         <v>301805254</v>
       </c>
-      <c r="F225" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G225" t="s">
+        <v>503</v>
+      </c>
+      <c r="H225" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>224</v>
       </c>
       <c r="B226">
         <v>506104428</v>
       </c>
-      <c r="F226" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G226" t="s">
+        <v>503</v>
+      </c>
+      <c r="H226" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>225</v>
       </c>
       <c r="B227">
         <v>369551652</v>
       </c>
-      <c r="F227" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G227" t="s">
+        <v>503</v>
+      </c>
+      <c r="H227" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>226</v>
       </c>
       <c r="B228">
         <v>753883548</v>
       </c>
-      <c r="F228" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G228" t="s">
+        <v>503</v>
+      </c>
+      <c r="H228" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>227</v>
       </c>
       <c r="B229">
         <v>271502232</v>
       </c>
-      <c r="F229" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G229" t="s">
+        <v>503</v>
+      </c>
+      <c r="H229" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>228</v>
       </c>
       <c r="B230">
         <v>603234589</v>
       </c>
-      <c r="F230" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G230" t="s">
+        <v>503</v>
+      </c>
+      <c r="H230" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>229</v>
       </c>
       <c r="B231">
         <v>79997115</v>
       </c>
-      <c r="F231" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G231" t="s">
+        <v>503</v>
+      </c>
+      <c r="H231" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>230</v>
       </c>
       <c r="B232">
         <v>70553934</v>
       </c>
-      <c r="F232" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G232" t="s">
+        <v>503</v>
+      </c>
+      <c r="H232" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>231</v>
       </c>
       <c r="B233">
         <v>939805801</v>
       </c>
-      <c r="F233" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G233" t="s">
+        <v>503</v>
+      </c>
+      <c r="H233" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>232</v>
       </c>
       <c r="B234">
         <v>892072260</v>
       </c>
-      <c r="F234" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G234" t="s">
+        <v>503</v>
+      </c>
+      <c r="H234" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>233</v>
       </c>
       <c r="B235">
         <v>595726839</v>
       </c>
-      <c r="F235" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G235" t="s">
+        <v>503</v>
+      </c>
+      <c r="H235" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>234</v>
       </c>
       <c r="B236">
         <v>521288058</v>
       </c>
-      <c r="F236" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G236" t="s">
+        <v>503</v>
+      </c>
+      <c r="H236" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>235</v>
       </c>
       <c r="B237">
         <v>692628492</v>
       </c>
-      <c r="F237" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G237" t="s">
+        <v>503</v>
+      </c>
+      <c r="H237" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>236</v>
       </c>
       <c r="B238">
         <v>369138134</v>
       </c>
-      <c r="F238" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G238" t="s">
+        <v>503</v>
+      </c>
+      <c r="H238" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>237</v>
       </c>
       <c r="B239">
         <v>97825304</v>
       </c>
-      <c r="F239" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G239" t="s">
+        <v>503</v>
+      </c>
+      <c r="H239" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>238</v>
       </c>
       <c r="B240">
         <v>282179181</v>
       </c>
-      <c r="F240" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G240" t="s">
+        <v>503</v>
+      </c>
+      <c r="H240" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>239</v>
       </c>
       <c r="B241">
         <v>549572990</v>
       </c>
-      <c r="F241" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G241" t="s">
+        <v>503</v>
+      </c>
+      <c r="H241" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>240</v>
       </c>
       <c r="B242">
         <v>842780354</v>
       </c>
-      <c r="F242" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G242" t="s">
+        <v>503</v>
+      </c>
+      <c r="H242" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>241</v>
       </c>
       <c r="B243">
         <v>808879893</v>
       </c>
-      <c r="F243" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G243" t="s">
+        <v>503</v>
+      </c>
+      <c r="H243" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>242</v>
       </c>
       <c r="B244">
         <v>368166366</v>
       </c>
-      <c r="F244" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G244" t="s">
+        <v>503</v>
+      </c>
+      <c r="H244" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>243</v>
       </c>
       <c r="B245">
         <v>791354420</v>
       </c>
-      <c r="F245" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G245" t="s">
+        <v>503</v>
+      </c>
+      <c r="H245" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>244</v>
       </c>
       <c r="B246">
         <v>426467337</v>
       </c>
-      <c r="F246" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G246" t="s">
+        <v>503</v>
+      </c>
+      <c r="H246" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>245</v>
       </c>
       <c r="B247">
         <v>599869937</v>
       </c>
-      <c r="F247" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G247" t="s">
+        <v>503</v>
+      </c>
+      <c r="H247" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>246</v>
       </c>
       <c r="B248">
         <v>273025497</v>
       </c>
-      <c r="F248" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G248" t="s">
+        <v>503</v>
+      </c>
+      <c r="H248" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>247</v>
       </c>
       <c r="B249">
         <v>736994943</v>
       </c>
-      <c r="F249" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G249" t="s">
+        <v>503</v>
+      </c>
+      <c r="H249" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>248</v>
       </c>
       <c r="B250">
         <v>486183966</v>
       </c>
-      <c r="F250" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G250" t="s">
+        <v>503</v>
+      </c>
+      <c r="H250" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>249</v>
       </c>
       <c r="B251">
         <v>266754654</v>
       </c>
-      <c r="F251" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G251" t="s">
+        <v>503</v>
+      </c>
+      <c r="H251" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>250</v>
       </c>
       <c r="B252">
         <v>42044686</v>
       </c>
-      <c r="F252" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G252" t="s">
+        <v>503</v>
+      </c>
+      <c r="H252" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>251</v>
       </c>
       <c r="B253">
         <v>557336223</v>
       </c>
-      <c r="F253" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G253" t="s">
+        <v>503</v>
+      </c>
+      <c r="H253" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>252</v>
       </c>
       <c r="B254">
         <v>402398811</v>
       </c>
-      <c r="F254" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G254" t="s">
+        <v>503</v>
+      </c>
+      <c r="H254" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>253</v>
       </c>
       <c r="B255">
         <v>551463515</v>
       </c>
-      <c r="F255" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G255" t="s">
+        <v>503</v>
+      </c>
+      <c r="H255" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>254</v>
       </c>
       <c r="B256">
         <v>130244640</v>
       </c>
-      <c r="F256" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G256" t="s">
+        <v>503</v>
+      </c>
+      <c r="H256" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>255</v>
       </c>
       <c r="B257">
         <v>579412430</v>
       </c>
-      <c r="F257" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G257" t="s">
+        <v>503</v>
+      </c>
+      <c r="H257" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>256</v>
       </c>
       <c r="B258">
         <v>47610261</v>
       </c>
-      <c r="F258" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G258" t="s">
+        <v>503</v>
+      </c>
+      <c r="H258" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>257</v>
       </c>
       <c r="B259">
         <v>141284589</v>
       </c>
-      <c r="F259" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G259" t="s">
+        <v>503</v>
+      </c>
+      <c r="H259" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>258</v>
       </c>
       <c r="B260">
         <v>139920371</v>
       </c>
-      <c r="F260" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G260" t="s">
+        <v>503</v>
+      </c>
+      <c r="H260" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>259</v>
       </c>
       <c r="B261">
         <v>180177531</v>
       </c>
-      <c r="F261" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G261" t="s">
+        <v>503</v>
+      </c>
+      <c r="H261" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>260</v>
       </c>
       <c r="B262">
         <v>75638196</v>
       </c>
-      <c r="F262" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G262" t="s">
+        <v>503</v>
+      </c>
+      <c r="H262" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>261</v>
       </c>
       <c r="B263">
         <v>168004791</v>
       </c>
-      <c r="F263" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G263" t="s">
+        <v>503</v>
+      </c>
+      <c r="H263" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>262</v>
       </c>
       <c r="B264">
         <v>542609508</v>
       </c>
-      <c r="F264" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G264" t="s">
+        <v>503</v>
+      </c>
+      <c r="H264" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>263</v>
       </c>
       <c r="B265">
         <v>785094238</v>
       </c>
-      <c r="F265" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G265" t="s">
+        <v>503</v>
+      </c>
+      <c r="H265" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>264</v>
       </c>
       <c r="B266">
         <v>601400890</v>
       </c>
-      <c r="F266" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G266" t="s">
+        <v>503</v>
+      </c>
+      <c r="H266" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>265</v>
       </c>
       <c r="B267">
         <v>18258916</v>
       </c>
-      <c r="F267" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G267" t="s">
+        <v>503</v>
+      </c>
+      <c r="H267" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>266</v>
       </c>
       <c r="B268">
         <v>24231789</v>
       </c>
-      <c r="F268" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G268" t="s">
+        <v>503</v>
+      </c>
+      <c r="H268" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>267</v>
       </c>
       <c r="B269">
         <v>639636185</v>
       </c>
-      <c r="F269" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G269" t="s">
+        <v>503</v>
+      </c>
+      <c r="H269" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>268</v>
       </c>
       <c r="B270">
         <v>25113822</v>
       </c>
-      <c r="F270" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G270" t="s">
+        <v>503</v>
+      </c>
+      <c r="H270" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>269</v>
       </c>
       <c r="B271">
         <v>887601061</v>
       </c>
-      <c r="F271" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G271" t="s">
+        <v>503</v>
+      </c>
+      <c r="H271" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>270</v>
       </c>
       <c r="B272">
         <v>872876778</v>
       </c>
-      <c r="F272" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G272" t="s">
+        <v>503</v>
+      </c>
+      <c r="H272" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>271</v>
       </c>
       <c r="B273">
         <v>445273287</v>
       </c>
-      <c r="F273" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G273" t="s">
+        <v>503</v>
+      </c>
+      <c r="H273" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>272</v>
       </c>
       <c r="B274">
         <v>777096008</v>
       </c>
-      <c r="F274" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G274" t="s">
+        <v>503</v>
+      </c>
+      <c r="H274" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>273</v>
       </c>
       <c r="B275">
         <v>78538035</v>
       </c>
-      <c r="F275" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G275" t="s">
+        <v>503</v>
+      </c>
+      <c r="H275" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>274</v>
       </c>
       <c r="B276">
         <v>747648933</v>
       </c>
-      <c r="F276" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G276" t="s">
+        <v>503</v>
+      </c>
+      <c r="H276" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>275</v>
       </c>
       <c r="B277">
         <v>537939687</v>
       </c>
-      <c r="F277" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G277" t="s">
+        <v>503</v>
+      </c>
+      <c r="H277" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>276</v>
       </c>
       <c r="B278">
         <v>816924738</v>
       </c>
-      <c r="F278" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G278" t="s">
+        <v>503</v>
+      </c>
+      <c r="H278" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>277</v>
       </c>
       <c r="B279">
         <v>689901742</v>
       </c>
-      <c r="F279" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G279" t="s">
+        <v>503</v>
+      </c>
+      <c r="H279" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>278</v>
       </c>
       <c r="B280">
         <v>748383922</v>
       </c>
-      <c r="F280" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G280" t="s">
+        <v>503</v>
+      </c>
+      <c r="H280" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>279</v>
       </c>
       <c r="B281">
         <v>306790927</v>
       </c>
-      <c r="F281" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G281" t="s">
+        <v>503</v>
+      </c>
+      <c r="H281" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>280</v>
       </c>
       <c r="B282">
         <v>283197801</v>
       </c>
-      <c r="F282" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G282" t="s">
+        <v>503</v>
+      </c>
+      <c r="H282" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>281</v>
       </c>
       <c r="B283">
         <v>384721058</v>
       </c>
-      <c r="F283" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G283" t="s">
+        <v>503</v>
+      </c>
+      <c r="H283" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>282</v>
       </c>
       <c r="B284">
         <v>645072742</v>
       </c>
-      <c r="F284" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G284" t="s">
+        <v>503</v>
+      </c>
+      <c r="H284" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>283</v>
       </c>
       <c r="B285">
         <v>160776349</v>
       </c>
-      <c r="F285" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G285" t="s">
+        <v>503</v>
+      </c>
+      <c r="H285" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>284</v>
       </c>
       <c r="B286">
         <v>130838150</v>
       </c>
-      <c r="F286" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G286" t="s">
+        <v>503</v>
+      </c>
+      <c r="H286" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>285</v>
       </c>
       <c r="B287">
         <v>973596211</v>
       </c>
-      <c r="F287" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G287" t="s">
+        <v>503</v>
+      </c>
+      <c r="H287" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>286</v>
       </c>
       <c r="B288">
         <v>726843132</v>
       </c>
-      <c r="F288" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G288" t="s">
+        <v>503</v>
+      </c>
+      <c r="H288" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>287</v>
       </c>
       <c r="B289">
         <v>985706431</v>
       </c>
-      <c r="F289" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G289" t="s">
+        <v>503</v>
+      </c>
+      <c r="H289" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>288</v>
       </c>
       <c r="B290">
         <v>679413445</v>
       </c>
-      <c r="F290" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G290" t="s">
+        <v>503</v>
+      </c>
+      <c r="H290" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>289</v>
       </c>
       <c r="B291">
         <v>69283057</v>
       </c>
-      <c r="F291" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G291" t="s">
+        <v>503</v>
+      </c>
+      <c r="H291" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>290</v>
       </c>
       <c r="B292">
         <v>44594874</v>
       </c>
-      <c r="F292" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G292" t="s">
+        <v>503</v>
+      </c>
+      <c r="H292" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>291</v>
       </c>
       <c r="B293">
         <v>504243732</v>
       </c>
-      <c r="F293" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G293" t="s">
+        <v>503</v>
+      </c>
+      <c r="H293" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>292</v>
       </c>
       <c r="B294">
         <v>816971394</v>
       </c>
-      <c r="F294" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G294" t="s">
+        <v>503</v>
+      </c>
+      <c r="H294" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>293</v>
       </c>
       <c r="B295">
         <v>22505916</v>
       </c>
-      <c r="F295" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G295" t="s">
+        <v>503</v>
+      </c>
+      <c r="H295" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>294</v>
       </c>
       <c r="B296">
         <v>641011867</v>
       </c>
-      <c r="F296" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G296" t="s">
+        <v>503</v>
+      </c>
+      <c r="H296" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>295</v>
       </c>
       <c r="B297">
         <v>923000066</v>
       </c>
-      <c r="F297" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G297" t="s">
+        <v>503</v>
+      </c>
+      <c r="H297" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>296</v>
       </c>
       <c r="B298">
         <v>583156990</v>
       </c>
-      <c r="F298" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G298" t="s">
+        <v>503</v>
+      </c>
+      <c r="H298" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>297</v>
       </c>
       <c r="B299">
         <v>98170539</v>
       </c>
-      <c r="F299" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G299" t="s">
+        <v>503</v>
+      </c>
+      <c r="H299" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>298</v>
       </c>
       <c r="B300">
         <v>869644634</v>
       </c>
-      <c r="F300" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G300" t="s">
+        <v>503</v>
+      </c>
+      <c r="H300" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>299</v>
       </c>
       <c r="B301">
         <v>827872385</v>
       </c>
-      <c r="F301" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G301" t="s">
+        <v>503</v>
+      </c>
+      <c r="H301" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>300</v>
       </c>
       <c r="B302">
         <v>798686257</v>
       </c>
-      <c r="F302" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G302" t="s">
+        <v>503</v>
+      </c>
+      <c r="H302" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>301</v>
       </c>
       <c r="B303">
         <v>212167106</v>
       </c>
-      <c r="F303" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G303" t="s">
+        <v>503</v>
+      </c>
+      <c r="H303" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>302</v>
       </c>
       <c r="B304">
         <v>626755117</v>
       </c>
-      <c r="F304" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G304" t="s">
+        <v>503</v>
+      </c>
+      <c r="H304" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>303</v>
       </c>
       <c r="B305">
         <v>853669239</v>
       </c>
-      <c r="F305" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G305" t="s">
+        <v>503</v>
+      </c>
+      <c r="H305" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>304</v>
       </c>
       <c r="B306">
         <v>923296150</v>
       </c>
-      <c r="F306" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G306" t="s">
+        <v>503</v>
+      </c>
+      <c r="H306" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>305</v>
       </c>
       <c r="B307">
         <v>563327680</v>
       </c>
-      <c r="F307" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G307" t="s">
+        <v>503</v>
+      </c>
+      <c r="H307" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>306</v>
       </c>
       <c r="B308">
         <v>679719835</v>
       </c>
-      <c r="F308" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G308" t="s">
+        <v>503</v>
+      </c>
+      <c r="H308" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>307</v>
       </c>
       <c r="B309">
         <v>738932589</v>
       </c>
-      <c r="F309" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G309" t="s">
+        <v>503</v>
+      </c>
+      <c r="H309" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>308</v>
       </c>
       <c r="B310">
         <v>165572657</v>
       </c>
-      <c r="F310" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G310" t="s">
+        <v>503</v>
+      </c>
+      <c r="H310" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>309</v>
       </c>
       <c r="B311">
         <v>753218255</v>
       </c>
-      <c r="F311" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G311" t="s">
+        <v>503</v>
+      </c>
+      <c r="H311" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>310</v>
       </c>
       <c r="B312">
         <v>298602558</v>
       </c>
-      <c r="F312" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G312" t="s">
+        <v>503</v>
+      </c>
+      <c r="H312" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>311</v>
       </c>
       <c r="B313">
         <v>25218266</v>
       </c>
-      <c r="F313" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G313" t="s">
+        <v>503</v>
+      </c>
+      <c r="H313" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>312</v>
       </c>
       <c r="B314">
         <v>147304872</v>
       </c>
-      <c r="F314" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G314" t="s">
+        <v>503</v>
+      </c>
+      <c r="H314" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>313</v>
       </c>
       <c r="B315">
         <v>327838623</v>
       </c>
-      <c r="F315" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G315" t="s">
+        <v>503</v>
+      </c>
+      <c r="H315" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>314</v>
       </c>
       <c r="B316">
         <v>854819508</v>
       </c>
-      <c r="F316" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G316" t="s">
+        <v>503</v>
+      </c>
+      <c r="H316" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>315</v>
       </c>
       <c r="B317">
         <v>349951007</v>
       </c>
-      <c r="F317" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G317" t="s">
+        <v>503</v>
+      </c>
+      <c r="H317" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>316</v>
       </c>
       <c r="B318">
         <v>436981689</v>
       </c>
-      <c r="F318" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G318" t="s">
+        <v>503</v>
+      </c>
+      <c r="H318" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>317</v>
       </c>
       <c r="B319">
         <v>913501683</v>
       </c>
-      <c r="F319" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G319" t="s">
+        <v>503</v>
+      </c>
+      <c r="H319" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>318</v>
       </c>
       <c r="B320">
         <v>683045329</v>
       </c>
-      <c r="F320" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G320" t="s">
+        <v>503</v>
+      </c>
+      <c r="H320" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>319</v>
       </c>
       <c r="B321">
         <v>247713641</v>
       </c>
-      <c r="F321" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G321" t="s">
+        <v>503</v>
+      </c>
+      <c r="H321" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>320</v>
       </c>
       <c r="B322">
         <v>481237049</v>
       </c>
-      <c r="F322" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G322" t="s">
+        <v>503</v>
+      </c>
+      <c r="H322" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>321</v>
       </c>
       <c r="B323">
         <v>436935790</v>
       </c>
-      <c r="F323" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G323" t="s">
+        <v>503</v>
+      </c>
+      <c r="H323" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>322</v>
       </c>
       <c r="B324">
         <v>5554203</v>
       </c>
-      <c r="F324" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G324" t="s">
+        <v>503</v>
+      </c>
+      <c r="H324" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>323</v>
       </c>
       <c r="B325">
         <v>133657459</v>
       </c>
-      <c r="F325" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G325" t="s">
+        <v>503</v>
+      </c>
+      <c r="H325" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>324</v>
       </c>
       <c r="B326">
         <v>935452889</v>
       </c>
-      <c r="F326" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G326" t="s">
+        <v>503</v>
+      </c>
+      <c r="H326" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>325</v>
       </c>
       <c r="B327">
         <v>667775013</v>
       </c>
-      <c r="F327" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G327" t="s">
+        <v>503</v>
+      </c>
+      <c r="H327" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>326</v>
       </c>
       <c r="B328">
         <v>938259201</v>
       </c>
-      <c r="F328" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G328" t="s">
+        <v>503</v>
+      </c>
+      <c r="H328" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>327</v>
       </c>
       <c r="B329">
         <v>802754596</v>
       </c>
-      <c r="F329" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G329" t="s">
+        <v>503</v>
+      </c>
+      <c r="H329" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>328</v>
       </c>
       <c r="B330">
         <v>266690578</v>
       </c>
-      <c r="F330" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G330" t="s">
+        <v>503</v>
+      </c>
+      <c r="H330" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>329</v>
       </c>
       <c r="B331">
         <v>789927156</v>
       </c>
-      <c r="F331" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G331" t="s">
+        <v>503</v>
+      </c>
+      <c r="H331" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>330</v>
       </c>
       <c r="B332">
         <v>46760873</v>
       </c>
-      <c r="F332" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G332" t="s">
+        <v>503</v>
+      </c>
+      <c r="H332" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>331</v>
       </c>
       <c r="B333">
         <v>389396704</v>
       </c>
-      <c r="F333" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G333" t="s">
+        <v>503</v>
+      </c>
+      <c r="H333" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>332</v>
       </c>
       <c r="B334">
         <v>152860842</v>
       </c>
-      <c r="F334" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G334" t="s">
+        <v>503</v>
+      </c>
+      <c r="H334" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>333</v>
       </c>
       <c r="B335">
         <v>383605033</v>
       </c>
-      <c r="F335" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G335" t="s">
+        <v>503</v>
+      </c>
+      <c r="H335" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>334</v>
       </c>
       <c r="B336">
         <v>434329258</v>
       </c>
-      <c r="F336" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G336" t="s">
+        <v>503</v>
+      </c>
+      <c r="H336" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>335</v>
       </c>
       <c r="B337">
         <v>833864809</v>
       </c>
-      <c r="F337" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G337" t="s">
+        <v>503</v>
+      </c>
+      <c r="H337" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>336</v>
       </c>
       <c r="B338">
         <v>921303959</v>
       </c>
-      <c r="F338" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G338" t="s">
+        <v>503</v>
+      </c>
+      <c r="H338" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>337</v>
       </c>
       <c r="B339">
         <v>590724065</v>
       </c>
-      <c r="F339" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G339" t="s">
+        <v>503</v>
+      </c>
+      <c r="H339" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>338</v>
       </c>
       <c r="B340">
         <v>224199111</v>
       </c>
-      <c r="F340" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G340" t="s">
+        <v>503</v>
+      </c>
+      <c r="H340" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>339</v>
       </c>
       <c r="B341">
         <v>590860270</v>
       </c>
-      <c r="F341" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G341" t="s">
+        <v>503</v>
+      </c>
+      <c r="H341" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>340</v>
       </c>
       <c r="B342">
         <v>293386867</v>
       </c>
-      <c r="F342" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G342" t="s">
+        <v>503</v>
+      </c>
+      <c r="H342" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>341</v>
       </c>
       <c r="B343">
         <v>466670105</v>
       </c>
-      <c r="F343" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G343" t="s">
+        <v>503</v>
+      </c>
+      <c r="H343" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>342</v>
       </c>
       <c r="B344">
         <v>556779712</v>
       </c>
-      <c r="F344" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G344" t="s">
+        <v>503</v>
+      </c>
+      <c r="H344" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>343</v>
       </c>
       <c r="B345">
         <v>895498154</v>
       </c>
-      <c r="F345" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G345" t="s">
+        <v>503</v>
+      </c>
+      <c r="H345" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>344</v>
       </c>
       <c r="B346">
         <v>284279791</v>
       </c>
-      <c r="F346" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G346" t="s">
+        <v>503</v>
+      </c>
+      <c r="H346" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>345</v>
       </c>
       <c r="B347">
         <v>834062306</v>
       </c>
-      <c r="F347" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G347" t="s">
+        <v>503</v>
+      </c>
+      <c r="H347" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>346</v>
       </c>
       <c r="B348">
         <v>452432697</v>
       </c>
-      <c r="F348" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G348" t="s">
+        <v>503</v>
+      </c>
+      <c r="H348" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>347</v>
       </c>
       <c r="B349">
         <v>440865285</v>
       </c>
-      <c r="F349" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G349" t="s">
+        <v>503</v>
+      </c>
+      <c r="H349" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>348</v>
       </c>
       <c r="B350">
         <v>609086960</v>
       </c>
-      <c r="F350" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G350" t="s">
+        <v>503</v>
+      </c>
+      <c r="H350" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>349</v>
       </c>
       <c r="B351">
         <v>605680155</v>
       </c>
-      <c r="F351" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G351" t="s">
+        <v>503</v>
+      </c>
+      <c r="H351" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>350</v>
       </c>
       <c r="B352">
         <v>788562262</v>
       </c>
-      <c r="F352" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G352" t="s">
+        <v>503</v>
+      </c>
+      <c r="H352" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>351</v>
       </c>
       <c r="B353">
         <v>373307740</v>
       </c>
-      <c r="F353" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G353" t="s">
+        <v>503</v>
+      </c>
+      <c r="H353" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>352</v>
       </c>
       <c r="B354">
         <v>694661035</v>
       </c>
-      <c r="F354" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G354" t="s">
+        <v>503</v>
+      </c>
+      <c r="H354" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>353</v>
       </c>
       <c r="B355">
         <v>122964675</v>
       </c>
-      <c r="F355" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G355" t="s">
+        <v>503</v>
+      </c>
+      <c r="H355" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>354</v>
       </c>
       <c r="B356">
         <v>834103057</v>
       </c>
-      <c r="F356" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G356" t="s">
+        <v>503</v>
+      </c>
+      <c r="H356" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>355</v>
       </c>
       <c r="B357">
         <v>887240835</v>
       </c>
-      <c r="F357" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G357" t="s">
+        <v>503</v>
+      </c>
+      <c r="H357" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>356</v>
       </c>
       <c r="B358">
         <v>426932239</v>
       </c>
-      <c r="F358" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G358" t="s">
+        <v>503</v>
+      </c>
+      <c r="H358" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>357</v>
       </c>
       <c r="B359">
         <v>633849126</v>
       </c>
-      <c r="F359" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G359" t="s">
+        <v>503</v>
+      </c>
+      <c r="H359" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>358</v>
       </c>
       <c r="B360">
         <v>2275795</v>
       </c>
-      <c r="F360" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G360" t="s">
+        <v>503</v>
+      </c>
+      <c r="H360" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>359</v>
       </c>
       <c r="B361">
         <v>130220534</v>
       </c>
-      <c r="F361" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G361" t="s">
+        <v>503</v>
+      </c>
+      <c r="H361" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>360</v>
       </c>
       <c r="B362">
         <v>92727120</v>
       </c>
-      <c r="F362" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G362" t="s">
+        <v>503</v>
+      </c>
+      <c r="H362" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>361</v>
       </c>
       <c r="B363">
         <v>66202026</v>
       </c>
-      <c r="F363" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G363" t="s">
+        <v>503</v>
+      </c>
+      <c r="H363" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>362</v>
       </c>
       <c r="B364">
         <v>106908056</v>
       </c>
-      <c r="F364" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G364" t="s">
+        <v>503</v>
+      </c>
+      <c r="H364" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>363</v>
       </c>
       <c r="B365">
         <v>320800236</v>
       </c>
-      <c r="F365" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G365" t="s">
+        <v>503</v>
+      </c>
+      <c r="H365" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>364</v>
       </c>
       <c r="B366">
         <v>222065498</v>
       </c>
-      <c r="F366" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G366" t="s">
+        <v>503</v>
+      </c>
+      <c r="H366" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>365</v>
       </c>
       <c r="B367">
         <v>878246924</v>
       </c>
-      <c r="F367" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G367" t="s">
+        <v>503</v>
+      </c>
+      <c r="H367" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>366</v>
       </c>
       <c r="B368">
         <v>232618720</v>
       </c>
-      <c r="F368" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G368" t="s">
+        <v>503</v>
+      </c>
+      <c r="H368" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>367</v>
       </c>
       <c r="B369">
         <v>516599434</v>
       </c>
-      <c r="F369" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G369" t="s">
+        <v>503</v>
+      </c>
+      <c r="H369" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>368</v>
       </c>
       <c r="B370">
         <v>644547511</v>
       </c>
-      <c r="F370" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G370" t="s">
+        <v>503</v>
+      </c>
+      <c r="H370" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>369</v>
       </c>
       <c r="B371">
         <v>919193952</v>
       </c>
-      <c r="F371" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G371" t="s">
+        <v>503</v>
+      </c>
+      <c r="H371" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>370</v>
       </c>
       <c r="B372">
         <v>862395820</v>
       </c>
-      <c r="F372" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G372" t="s">
+        <v>503</v>
+      </c>
+      <c r="H372" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>371</v>
       </c>
       <c r="B373">
         <v>769461908</v>
       </c>
-      <c r="F373" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G373" t="s">
+        <v>503</v>
+      </c>
+      <c r="H373" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>372</v>
       </c>
       <c r="B374">
         <v>898959885</v>
       </c>
-      <c r="F374" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G374" t="s">
+        <v>503</v>
+      </c>
+      <c r="H374" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>373</v>
       </c>
       <c r="B375">
         <v>322732725</v>
       </c>
-      <c r="F375" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G375" t="s">
+        <v>503</v>
+      </c>
+      <c r="H375" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>374</v>
       </c>
       <c r="B376">
         <v>668930796</v>
       </c>
-      <c r="F376" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G376" t="s">
+        <v>503</v>
+      </c>
+      <c r="H376" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>375</v>
       </c>
       <c r="B377">
         <v>553157005</v>
       </c>
-      <c r="F377" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G377" t="s">
+        <v>503</v>
+      </c>
+      <c r="H377" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>376</v>
       </c>
       <c r="B378">
         <v>170592430</v>
       </c>
-      <c r="F378" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G378" t="s">
+        <v>503</v>
+      </c>
+      <c r="H378" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>377</v>
       </c>
       <c r="B379">
         <v>738154906</v>
       </c>
-      <c r="F379" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G379" t="s">
+        <v>503</v>
+      </c>
+      <c r="H379" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>378</v>
       </c>
       <c r="B380">
         <v>182468761</v>
       </c>
-      <c r="F380" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G380" t="s">
+        <v>503</v>
+      </c>
+      <c r="H380" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>379</v>
       </c>
       <c r="B381">
         <v>605965230</v>
       </c>
-      <c r="F381" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G381" t="s">
+        <v>503</v>
+      </c>
+      <c r="H381" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>380</v>
       </c>
       <c r="B382">
         <v>172793417</v>
       </c>
-      <c r="F382" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G382" t="s">
+        <v>503</v>
+      </c>
+      <c r="H382" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>381</v>
       </c>
       <c r="B383">
         <v>698835242</v>
       </c>
-      <c r="F383" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G383" t="s">
+        <v>503</v>
+      </c>
+      <c r="H383" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>382</v>
       </c>
       <c r="B384">
         <v>690218574</v>
       </c>
-      <c r="F384" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G384" t="s">
+        <v>503</v>
+      </c>
+      <c r="H384" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>383</v>
       </c>
       <c r="B385">
         <v>622877156</v>
       </c>
-      <c r="F385" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G385" t="s">
+        <v>503</v>
+      </c>
+      <c r="H385" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>384</v>
       </c>
       <c r="B386">
         <v>653274280</v>
       </c>
-      <c r="F386" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G386" t="s">
+        <v>503</v>
+      </c>
+      <c r="H386" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>385</v>
       </c>
       <c r="B387">
         <v>153104491</v>
       </c>
-      <c r="F387" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G387" t="s">
+        <v>503</v>
+      </c>
+      <c r="H387" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>386</v>
       </c>
       <c r="B388">
         <v>594805566</v>
       </c>
-      <c r="F388" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G388" t="s">
+        <v>503</v>
+      </c>
+      <c r="H388" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>387</v>
       </c>
       <c r="B389">
         <v>141567460</v>
       </c>
-      <c r="F389" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G389" t="s">
+        <v>503</v>
+      </c>
+      <c r="H389" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>388</v>
       </c>
       <c r="B390">
         <v>153746477</v>
       </c>
-      <c r="F390" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G390" t="s">
+        <v>503</v>
+      </c>
+      <c r="H390" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>389</v>
       </c>
       <c r="B391">
         <v>740457700</v>
       </c>
-      <c r="F391" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G391" t="s">
+        <v>503</v>
+      </c>
+      <c r="H391" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>390</v>
       </c>
       <c r="B392">
         <v>149661835</v>
       </c>
-      <c r="F392" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G392" t="s">
+        <v>503</v>
+      </c>
+      <c r="H392" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>391</v>
       </c>
       <c r="B393">
         <v>729975781</v>
       </c>
-      <c r="F393" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G393" t="s">
+        <v>503</v>
+      </c>
+      <c r="H393" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>392</v>
       </c>
       <c r="B394">
         <v>570820957</v>
       </c>
-      <c r="F394" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G394" t="s">
+        <v>503</v>
+      </c>
+      <c r="H394" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>393</v>
       </c>
       <c r="B395">
         <v>555021995</v>
       </c>
-      <c r="F395" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G395" t="s">
+        <v>503</v>
+      </c>
+      <c r="H395" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>394</v>
       </c>
       <c r="B396">
         <v>319166677</v>
       </c>
-      <c r="F396" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G396" t="s">
+        <v>503</v>
+      </c>
+      <c r="H396" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>395</v>
       </c>
       <c r="B397">
         <v>586615272</v>
       </c>
-      <c r="F397" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G397" t="s">
+        <v>503</v>
+      </c>
+      <c r="H397" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>396</v>
       </c>
       <c r="B398">
         <v>611665637</v>
       </c>
-      <c r="F398" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G398" t="s">
+        <v>503</v>
+      </c>
+      <c r="H398" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>397</v>
       </c>
       <c r="B399">
         <v>696380687</v>
       </c>
-      <c r="F399" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G399" t="s">
+        <v>503</v>
+      </c>
+      <c r="H399" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>398</v>
       </c>
       <c r="B400">
         <v>887474054</v>
       </c>
-      <c r="F400" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G400" t="s">
+        <v>503</v>
+      </c>
+      <c r="H400" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>399</v>
       </c>
       <c r="B401">
         <v>535743019</v>
       </c>
-      <c r="F401" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G401" t="s">
+        <v>503</v>
+      </c>
+      <c r="H401" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>400</v>
       </c>
       <c r="B402">
         <v>962337348</v>
       </c>
-      <c r="F402" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G402" t="s">
+        <v>503</v>
+      </c>
+      <c r="H402" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>401</v>
       </c>
       <c r="B403">
         <v>939561079</v>
       </c>
-      <c r="F403" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G403" t="s">
+        <v>503</v>
+      </c>
+      <c r="H403" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>402</v>
       </c>
       <c r="B404">
         <v>295379853</v>
       </c>
-      <c r="F404" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G404" t="s">
+        <v>503</v>
+      </c>
+      <c r="H404" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>403</v>
       </c>
       <c r="B405">
         <v>727789349</v>
       </c>
-      <c r="F405" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G405" t="s">
+        <v>503</v>
+      </c>
+      <c r="H405" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>404</v>
       </c>
       <c r="B406">
         <v>224678037</v>
       </c>
-      <c r="F406" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G406" t="s">
+        <v>503</v>
+      </c>
+      <c r="H406" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>405</v>
       </c>
       <c r="B407">
         <v>574300993</v>
       </c>
-      <c r="F407" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G407" t="s">
+        <v>503</v>
+      </c>
+      <c r="H407" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>406</v>
       </c>
       <c r="B408">
         <v>450476504</v>
       </c>
-      <c r="F408" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G408" t="s">
+        <v>503</v>
+      </c>
+      <c r="H408" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>407</v>
       </c>
       <c r="B409">
         <v>516911527</v>
       </c>
-      <c r="F409" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G409" t="s">
+        <v>503</v>
+      </c>
+      <c r="H409" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>408</v>
       </c>
       <c r="B410">
         <v>779140576</v>
       </c>
-      <c r="F410" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G410" t="s">
+        <v>503</v>
+      </c>
+      <c r="H410" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>409</v>
       </c>
       <c r="B411">
         <v>373068758</v>
       </c>
-      <c r="F411" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G411" t="s">
+        <v>503</v>
+      </c>
+      <c r="H411" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>410</v>
       </c>
       <c r="B412">
         <v>314530787</v>
       </c>
-      <c r="F412" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G412" t="s">
+        <v>503</v>
+      </c>
+      <c r="H412" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>411</v>
       </c>
       <c r="B413">
         <v>49004808</v>
       </c>
-      <c r="F413" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G413" t="s">
+        <v>503</v>
+      </c>
+      <c r="H413" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>412</v>
       </c>
       <c r="B414">
         <v>469444032</v>
       </c>
-      <c r="F414" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G414" t="s">
+        <v>503</v>
+      </c>
+      <c r="H414" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>413</v>
       </c>
       <c r="B415">
         <v>688571545</v>
       </c>
-      <c r="F415" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G415" t="s">
+        <v>503</v>
+      </c>
+      <c r="H415" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>414</v>
       </c>
       <c r="B416">
         <v>751639375</v>
       </c>
-      <c r="F416" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G416" t="s">
+        <v>503</v>
+      </c>
+      <c r="H416" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>415</v>
       </c>
       <c r="B417">
         <v>231055911</v>
       </c>
-      <c r="F417" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G417" t="s">
+        <v>503</v>
+      </c>
+      <c r="H417" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>416</v>
       </c>
       <c r="B418">
         <v>865999681</v>
       </c>
-      <c r="F418" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G418" t="s">
+        <v>503</v>
+      </c>
+      <c r="H418" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>417</v>
       </c>
       <c r="B419">
         <v>410711521</v>
       </c>
-      <c r="F419" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G419" t="s">
+        <v>503</v>
+      </c>
+      <c r="H419" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>418</v>
       </c>
       <c r="B420">
         <v>742608694</v>
       </c>
-      <c r="F420" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G420" t="s">
+        <v>503</v>
+      </c>
+      <c r="H420" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>419</v>
       </c>
       <c r="B421">
         <v>443016401</v>
       </c>
-      <c r="F421" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G421" t="s">
+        <v>503</v>
+      </c>
+      <c r="H421" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>420</v>
       </c>
       <c r="B422">
         <v>363939135</v>
       </c>
-      <c r="F422" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G422" t="s">
+        <v>503</v>
+      </c>
+      <c r="H422" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>421</v>
       </c>
       <c r="B423">
         <v>35491549</v>
       </c>
-      <c r="F423" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G423" t="s">
+        <v>503</v>
+      </c>
+      <c r="H423" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>422</v>
       </c>
       <c r="B424">
         <v>975327037</v>
       </c>
-      <c r="F424" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G424" t="s">
+        <v>503</v>
+      </c>
+      <c r="H424" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>423</v>
       </c>
       <c r="B425">
         <v>29150706</v>
       </c>
-      <c r="F425" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G425" t="s">
+        <v>503</v>
+      </c>
+      <c r="H425" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>424</v>
       </c>
       <c r="B426">
         <v>91138986</v>
       </c>
-      <c r="F426" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G426" t="s">
+        <v>503</v>
+      </c>
+      <c r="H426" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>425</v>
       </c>
       <c r="B427">
         <v>865839139</v>
       </c>
-      <c r="F427" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G427" t="s">
+        <v>503</v>
+      </c>
+      <c r="H427" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>426</v>
       </c>
       <c r="B428">
         <v>661696892</v>
       </c>
-      <c r="F428" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G428" t="s">
+        <v>503</v>
+      </c>
+      <c r="H428" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>427</v>
       </c>
       <c r="B429">
         <v>976878388</v>
       </c>
-      <c r="F429" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G429" t="s">
+        <v>503</v>
+      </c>
+      <c r="H429" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>428</v>
       </c>
       <c r="B430">
         <v>244140275</v>
       </c>
-      <c r="F430" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G430" t="s">
+        <v>503</v>
+      </c>
+      <c r="H430" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>429</v>
       </c>
       <c r="B431">
         <v>849083947</v>
       </c>
-      <c r="F431" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G431" t="s">
+        <v>503</v>
+      </c>
+      <c r="H431" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>430</v>
       </c>
       <c r="B432">
         <v>449109845</v>
       </c>
-      <c r="F432" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G432" t="s">
+        <v>503</v>
+      </c>
+      <c r="H432" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>431</v>
       </c>
       <c r="B433">
         <v>177144365</v>
       </c>
-      <c r="F433" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G433" t="s">
+        <v>503</v>
+      </c>
+      <c r="H433" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>432</v>
       </c>
       <c r="B434">
         <v>728176576</v>
       </c>
-      <c r="F434" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G434" t="s">
+        <v>503</v>
+      </c>
+      <c r="H434" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>433</v>
       </c>
       <c r="B435">
         <v>314964824</v>
       </c>
-      <c r="F435" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G435" t="s">
+        <v>503</v>
+      </c>
+      <c r="H435" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>434</v>
       </c>
       <c r="B436">
         <v>66805451</v>
       </c>
-      <c r="F436" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G436" t="s">
+        <v>503</v>
+      </c>
+      <c r="H436" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>435</v>
       </c>
       <c r="B437">
         <v>414587059</v>
       </c>
-      <c r="F437" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G437" t="s">
+        <v>503</v>
+      </c>
+      <c r="H437" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>436</v>
       </c>
       <c r="B438">
         <v>987225874</v>
       </c>
-      <c r="F438" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G438" t="s">
+        <v>503</v>
+      </c>
+      <c r="H438" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>437</v>
       </c>
       <c r="B439">
         <v>86511754</v>
       </c>
-      <c r="F439" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G439" t="s">
+        <v>503</v>
+      </c>
+      <c r="H439" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>438</v>
       </c>
       <c r="B440">
         <v>959631233</v>
       </c>
-      <c r="F440" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G440" t="s">
+        <v>503</v>
+      </c>
+      <c r="H440" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>439</v>
       </c>
       <c r="B441">
         <v>412459486</v>
       </c>
-      <c r="F441" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G441" t="s">
+        <v>503</v>
+      </c>
+      <c r="H441" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>440</v>
       </c>
       <c r="B442">
         <v>823807063</v>
       </c>
-      <c r="F442" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G442" t="s">
+        <v>503</v>
+      </c>
+      <c r="H442" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>441</v>
       </c>
       <c r="B443">
         <v>398510549</v>
       </c>
-      <c r="F443" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G443" t="s">
+        <v>503</v>
+      </c>
+      <c r="H443" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>442</v>
       </c>
       <c r="B444">
         <v>62964888</v>
       </c>
-      <c r="F444" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G444" t="s">
+        <v>503</v>
+      </c>
+      <c r="H444" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>443</v>
       </c>
       <c r="B445">
         <v>697648696</v>
       </c>
-      <c r="F445" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G445" t="s">
+        <v>503</v>
+      </c>
+      <c r="H445" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>444</v>
       </c>
       <c r="B446">
         <v>780906571</v>
       </c>
-      <c r="F446" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G446" t="s">
+        <v>503</v>
+      </c>
+      <c r="H446" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>445</v>
       </c>
       <c r="B447">
         <v>304600365</v>
       </c>
-      <c r="F447" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G447" t="s">
+        <v>503</v>
+      </c>
+      <c r="H447" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>446</v>
       </c>
       <c r="B448">
         <v>619688708</v>
       </c>
-      <c r="F448" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G448" t="s">
+        <v>503</v>
+      </c>
+      <c r="H448" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>447</v>
       </c>
       <c r="B449">
         <v>339639013</v>
       </c>
-      <c r="F449" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G449" t="s">
+        <v>503</v>
+      </c>
+      <c r="H449" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>448</v>
       </c>
       <c r="B450">
         <v>403659664</v>
       </c>
-      <c r="F450" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G450" t="s">
+        <v>503</v>
+      </c>
+      <c r="H450" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>449</v>
       </c>
       <c r="B451">
         <v>193463588</v>
       </c>
-      <c r="F451" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G451" t="s">
+        <v>503</v>
+      </c>
+      <c r="H451" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>450</v>
       </c>
       <c r="B452">
         <v>916225046</v>
       </c>
-      <c r="F452" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G452" t="s">
+        <v>503</v>
+      </c>
+      <c r="H452" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>451</v>
       </c>
       <c r="B453">
         <v>117493340</v>
       </c>
-      <c r="F453" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G453" t="s">
+        <v>503</v>
+      </c>
+      <c r="H453" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>452</v>
       </c>
       <c r="B454">
         <v>188698200</v>
       </c>
-      <c r="F454" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G454" t="s">
+        <v>503</v>
+      </c>
+      <c r="H454" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>453</v>
       </c>
       <c r="B455">
         <v>626987759</v>
       </c>
-      <c r="F455" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G455" t="s">
+        <v>503</v>
+      </c>
+      <c r="H455" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>454</v>
       </c>
       <c r="B456">
         <v>509525339</v>
       </c>
-      <c r="F456" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G456" t="s">
+        <v>503</v>
+      </c>
+      <c r="H456" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>455</v>
       </c>
       <c r="B457">
         <v>272452887</v>
       </c>
-      <c r="F457" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G457" t="s">
+        <v>503</v>
+      </c>
+      <c r="H457" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>456</v>
       </c>
       <c r="B458">
         <v>621863039</v>
       </c>
-      <c r="F458" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G458" t="s">
+        <v>503</v>
+      </c>
+      <c r="H458" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>457</v>
       </c>
       <c r="B459">
         <v>510422073</v>
       </c>
-      <c r="F459" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G459" t="s">
+        <v>503</v>
+      </c>
+      <c r="H459" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>458</v>
       </c>
       <c r="B460">
         <v>251788576</v>
       </c>
-      <c r="F460" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G460" t="s">
+        <v>503</v>
+      </c>
+      <c r="H460" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>459</v>
       </c>
       <c r="B461">
         <v>363643725</v>
       </c>
-      <c r="F461" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G461" t="s">
+        <v>503</v>
+      </c>
+      <c r="H461" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>460</v>
       </c>
       <c r="B462">
         <v>39381697</v>
       </c>
-      <c r="F462" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G462" t="s">
+        <v>503</v>
+      </c>
+      <c r="H462" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>461</v>
       </c>
       <c r="B463">
         <v>338802853</v>
       </c>
-      <c r="F463" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G463" t="s">
+        <v>503</v>
+      </c>
+      <c r="H463" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>462</v>
       </c>
       <c r="B464">
         <v>298921689</v>
       </c>
-      <c r="F464" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G464" t="s">
+        <v>503</v>
+      </c>
+      <c r="H464" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>463</v>
       </c>
       <c r="B465">
         <v>513627641</v>
       </c>
-      <c r="F465" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G465" t="s">
+        <v>503</v>
+      </c>
+      <c r="H465" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>464</v>
       </c>
       <c r="B466">
         <v>537736881</v>
       </c>
-      <c r="F466" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G466" t="s">
+        <v>503</v>
+      </c>
+      <c r="H466" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>465</v>
       </c>
       <c r="B467">
         <v>470098364</v>
       </c>
-      <c r="F467" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G467" t="s">
+        <v>503</v>
+      </c>
+      <c r="H467" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>466</v>
       </c>
       <c r="B468">
         <v>751093543</v>
       </c>
-      <c r="F468" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G468" t="s">
+        <v>503</v>
+      </c>
+      <c r="H468" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>467</v>
       </c>
       <c r="B469">
         <v>997153408</v>
       </c>
-      <c r="F469" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G469" t="s">
+        <v>503</v>
+      </c>
+      <c r="H469" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>468</v>
       </c>
       <c r="B470">
         <v>651539805</v>
       </c>
-      <c r="F470" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G470" t="s">
+        <v>503</v>
+      </c>
+      <c r="H470" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>469</v>
       </c>
       <c r="B471">
         <v>257152956</v>
       </c>
-      <c r="F471" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G471" t="s">
+        <v>503</v>
+      </c>
+      <c r="H471" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>470</v>
       </c>
       <c r="B472">
         <v>855942550</v>
       </c>
-      <c r="F472" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G472" t="s">
+        <v>503</v>
+      </c>
+      <c r="H472" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>471</v>
       </c>
       <c r="B473">
         <v>955330547</v>
       </c>
-      <c r="F473" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G473" t="s">
+        <v>503</v>
+      </c>
+      <c r="H473" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>472</v>
       </c>
       <c r="B474">
         <v>419005847</v>
       </c>
-      <c r="F474" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G474" t="s">
+        <v>503</v>
+      </c>
+      <c r="H474" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>473</v>
       </c>
       <c r="B475">
         <v>201798827</v>
       </c>
-      <c r="F475" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G475" t="s">
+        <v>503</v>
+      </c>
+      <c r="H475" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>474</v>
       </c>
       <c r="B476">
         <v>133784125</v>
       </c>
-      <c r="F476" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G476" t="s">
+        <v>503</v>
+      </c>
+      <c r="H476" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>475</v>
       </c>
       <c r="B477">
         <v>616667510</v>
       </c>
-      <c r="F477" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G477" t="s">
+        <v>503</v>
+      </c>
+      <c r="H477" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>476</v>
       </c>
       <c r="B478">
         <v>39422454</v>
       </c>
-      <c r="F478" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G478" t="s">
+        <v>503</v>
+      </c>
+      <c r="H478" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>477</v>
       </c>
       <c r="B479">
         <v>705393212</v>
       </c>
-      <c r="F479" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G479" t="s">
+        <v>503</v>
+      </c>
+      <c r="H479" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>478</v>
       </c>
       <c r="B480">
         <v>994226985</v>
       </c>
-      <c r="F480" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G480" t="s">
+        <v>503</v>
+      </c>
+      <c r="H480" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>479</v>
       </c>
       <c r="B481">
         <v>426955452</v>
       </c>
-      <c r="F481" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G481" t="s">
+        <v>503</v>
+      </c>
+      <c r="H481" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>480</v>
       </c>
       <c r="B482">
         <v>950260304</v>
       </c>
-      <c r="F482" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G482" t="s">
+        <v>503</v>
+      </c>
+      <c r="H482" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>481</v>
       </c>
       <c r="B483">
         <v>647849321</v>
       </c>
-      <c r="F483" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G483" t="s">
+        <v>503</v>
+      </c>
+      <c r="H483" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>482</v>
       </c>
       <c r="B484">
         <v>688088397</v>
       </c>
-      <c r="F484" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G484" t="s">
+        <v>503</v>
+      </c>
+      <c r="H484" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>483</v>
       </c>
       <c r="B485">
         <v>494512800</v>
       </c>
-      <c r="F485" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G485" t="s">
+        <v>503</v>
+      </c>
+      <c r="H485" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>484</v>
       </c>
       <c r="B486">
         <v>890799126</v>
       </c>
-      <c r="F486" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G486" t="s">
+        <v>503</v>
+      </c>
+      <c r="H486" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>485</v>
       </c>
       <c r="B487">
         <v>37300015</v>
       </c>
-      <c r="F487" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G487" t="s">
+        <v>503</v>
+      </c>
+      <c r="H487" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>486</v>
       </c>
       <c r="B488">
         <v>368073517</v>
       </c>
-      <c r="F488" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G488" t="s">
+        <v>503</v>
+      </c>
+      <c r="H488" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>487</v>
       </c>
       <c r="B489">
         <v>768948284</v>
       </c>
-      <c r="F489" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G489" t="s">
+        <v>503</v>
+      </c>
+      <c r="H489" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>488</v>
       </c>
       <c r="B490">
         <v>277362466</v>
       </c>
-      <c r="F490" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G490" t="s">
+        <v>503</v>
+      </c>
+      <c r="H490" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>489</v>
       </c>
       <c r="B491">
         <v>45753781</v>
       </c>
-      <c r="F491" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G491" t="s">
+        <v>503</v>
+      </c>
+      <c r="H491" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>490</v>
       </c>
       <c r="B492">
         <v>754505159</v>
       </c>
-      <c r="F492" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G492" t="s">
+        <v>503</v>
+      </c>
+      <c r="H492" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>491</v>
       </c>
       <c r="B493">
         <v>262598600</v>
       </c>
-      <c r="F493" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G493" t="s">
+        <v>503</v>
+      </c>
+      <c r="H493" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>492</v>
       </c>
       <c r="B494">
         <v>707778211</v>
       </c>
-      <c r="F494" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G494" t="s">
+        <v>503</v>
+      </c>
+      <c r="H494" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>493</v>
       </c>
       <c r="B495">
         <v>688384078</v>
       </c>
-      <c r="F495" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G495" t="s">
+        <v>503</v>
+      </c>
+      <c r="H495" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>494</v>
       </c>
       <c r="B496">
         <v>251139410</v>
       </c>
-      <c r="F496" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G496" t="s">
+        <v>503</v>
+      </c>
+      <c r="H496" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>495</v>
       </c>
       <c r="B497">
         <v>264000981</v>
       </c>
-      <c r="F497" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G497" t="s">
+        <v>503</v>
+      </c>
+      <c r="H497" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>496</v>
       </c>
       <c r="B498">
         <v>785524526</v>
       </c>
-      <c r="F498" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G498" t="s">
+        <v>503</v>
+      </c>
+      <c r="H498" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>497</v>
       </c>
       <c r="B499">
         <v>624858676</v>
       </c>
-      <c r="F499" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G499" t="s">
+        <v>503</v>
+      </c>
+      <c r="H499" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>498</v>
       </c>
       <c r="B500">
         <v>47856725</v>
       </c>
-      <c r="F500" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G500" t="s">
+        <v>503</v>
+      </c>
+      <c r="H500" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>500</v>
       </c>
       <c r="B501">
         <v>455156501</v>
       </c>
-      <c r="F501" t="s">
-        <v>506</v>
+      <c r="G501" t="s">
+        <v>503</v>
+      </c>
+      <c r="H501" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>507</v>
+      </c>
+      <c r="B502" t="s">
+        <v>507</v>
+      </c>
+      <c r="G502" t="s">
+        <v>511</v>
+      </c>
+      <c r="H502" t="s">
+        <v>511</v>
       </c>
     </row>
   </sheetData>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H505"/>
+  <dimension ref="A1:H504"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A480" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C484" sqref="C484"/>
@@ -1084,12 +1084,22 @@
           <t>U1030</t>
         </is>
       </c>
-      <c r="B31" s="2" t="n">
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>564asd@gD</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
         <v>78824233</v>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>jacad@afsf.com</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -10527,7 +10537,6 @@
     </row>
     <row r="503"/>
     <row r="504"/>
-    <row r="505"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -436,13 +436,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H504"/>
+  <dimension ref="A1:H503"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A480" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C484" sqref="C484"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="16.33203125" customWidth="1" min="1" max="1"/>
     <col width="15.6640625" customWidth="1" style="2" min="2" max="2"/>
@@ -10524,6 +10524,11 @@
           <t>mjavadtatari</t>
         </is>
       </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>mjavadtatari98@gmail.com</t>
+        </is>
+      </c>
       <c r="G502" t="inlineStr">
         <is>
           <t>Never</t>
@@ -10531,12 +10536,11 @@
       </c>
       <c r="H502" t="inlineStr">
         <is>
-          <t>Never</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="503"/>
-    <row r="504"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -10202,6 +10202,11 @@
       <c r="C486" t="n">
         <v>890799126</v>
       </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>U1485@gmail.com</t>
+        </is>
+      </c>
       <c r="G486" t="inlineStr">
         <is>
           <t>F</t>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H503"/>
+  <dimension ref="A1:H504"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A480" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C484" sqref="C484"/>
@@ -10546,6 +10546,7 @@
       </c>
     </row>
     <row r="503"/>
+    <row r="504"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H504"/>
+  <dimension ref="A1:H503"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A480" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C484" sqref="C484"/>
@@ -10546,7 +10546,6 @@
       </c>
     </row>
     <row r="503"/>
-    <row r="504"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -27,7 +27,9 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <sz val="8"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -48,10 +50,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
@@ -59,9 +62,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -431,15 +436,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H503"/>
+  <dimension ref="A1:H508"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A480" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C484" sqref="C484"/>
+      <selection activeCell="D487" sqref="D487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -9504,7 +9509,7 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -9524,7 +9529,7 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -9544,7 +9549,7 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -10196,15 +10201,17 @@
       </c>
       <c r="B486" s="2" t="inlineStr">
         <is>
-          <t>asd456#ASD</t>
-        </is>
-      </c>
-      <c r="C486" t="n">
-        <v>890799126</v>
-      </c>
-      <c r="D486" t="inlineStr">
-        <is>
-          <t>U1485@gmail.com</t>
+          <t>^gLY&amp;S!GpINztQ#r</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>Xj1BZRaz5l$AynDS</t>
+        </is>
+      </c>
+      <c r="D486" s="3" t="inlineStr">
+        <is>
+          <t>javadgraphicnet@gmail.com</t>
         </is>
       </c>
       <c r="G486" t="inlineStr">
@@ -10234,7 +10241,7 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -10274,7 +10281,7 @@
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -10294,7 +10301,7 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -10546,7 +10553,15 @@
       </c>
     </row>
     <row r="503"/>
+    <row r="504"/>
+    <row r="505"/>
+    <row r="506"/>
+    <row r="507"/>
+    <row r="508"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D486" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Users.xlsx
+++ b/Users.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H508"/>
+  <dimension ref="A1:H504"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A480" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D487" sqref="D487"/>
@@ -10554,10 +10554,6 @@
     </row>
     <row r="503"/>
     <row r="504"/>
-    <row r="505"/>
-    <row r="506"/>
-    <row r="507"/>
-    <row r="508"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D486" r:id="rId1"/>
